--- a/Test_Case_Template.xlsx
+++ b/Test_Case_Template.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duong Van Tra\Documents\Kiem thu phan mem\BTL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDA48CC-B059-4846-84A3-1DDF8E064D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5838F586-3B59-4AFC-814F-6CDD11679430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="801" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="801" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover page" sheetId="3" r:id="rId1"/>
-    <sheet name="Glossary" sheetId="13" r:id="rId2"/>
-    <sheet name="Function Test Cases" sheetId="8" r:id="rId3"/>
-    <sheet name="Security_Performanc Test Cases" sheetId="16" r:id="rId4"/>
+    <sheet name="Function Test Cases" sheetId="8" r:id="rId2"/>
+    <sheet name="Security_Performanc Test Cases" sheetId="16" r:id="rId3"/>
+    <sheet name="User_Interface Test Ca" sheetId="18" r:id="rId4"/>
     <sheet name="Automated Test Cases" sheetId="10" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Function Test Cases'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Function Test Cases'!#REF!</definedName>
     <definedName name="_Toc506113793" localSheetId="0">'Cover page'!$B$16</definedName>
     <definedName name="d">'Function Test Cases'!$M$4</definedName>
   </definedNames>
@@ -583,7 +583,7 @@
     <author>DUCHU</author>
   </authors>
   <commentList>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{93268513-F741-4A49-9B7B-02CCE1E68AB9}">
       <text>
         <r>
           <rPr>
@@ -607,7 +607,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{8EFFA1CF-4A25-42AD-A2CD-E499EFEFFB84}">
       <text>
         <r>
           <rPr>
@@ -632,7 +632,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{832786C9-971B-4077-936D-38BC08D24B01}">
       <text>
         <r>
           <rPr>
@@ -662,6 +662,275 @@
         </r>
       </text>
     </comment>
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{3F4276CC-1889-4CF6-B9C2-38386FEBA614}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DUCHU:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Ignore this column (hide the columns) if test procedures are not required</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H7" authorId="0" shapeId="0" xr:uid="{AE64B4EB-BD53-4948-9C70-A7EAA24E85C6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DUCHU:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- Expected Results are the resulting state or data received upon completion of executing this test case</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{6FFC11A9-2235-4C00-B955-13609345A2DC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DUCHU:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- An executed test case can be either:
+ + Passed
+ + Failed
+- A test case can have Not Run status if it is not executed yet
+- A test case can hae Not Completed status if its execution is not completed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J7" authorId="0" shapeId="0" xr:uid="{1D12BB82-B415-413A-96BB-CBA032D1F943}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DUCHU:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- An executed test case can be either:
+ + Passed
+ + Failed
+- A test case can have Not Run status if it is not executed yet
+- A test case can hae Not Completed status if its execution is not completed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{915F4144-BF22-4E78-B440-86BE631C0F20}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DUCHU:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- It is recommended to use 1 row for a step.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{CB0FA4EC-F820-4BE1-8D5B-A19EB757B936}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DUCHU:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Optional</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{77038266-4E1C-493A-B965-E10229741146}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DUCHU:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- An executed test case can be either:
+ + Passed
+ + Failed
+- A test case can have Not Run status if it is not executed yet
+- A test case can hae Not Completed status if its execution is not completed</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>DUCHU</author>
+  </authors>
+  <commentList>
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DUCHU:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Use this column to group test cases. If no goup is identified, hide this column.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DUCHU:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- Each test case is identified by a Test Case ID that can be referenced from other testing software and all testers regardless of access to. 
+- Insert rows for new test cases</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DUCHU:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- [Test Description] is the actual description of the flow of events or actual condition being tested.  This individual table cell will be selected as the testing requirement
+- Describe the test including:
+  + Pre-Condition / where the user starts test
+  + Test Description
+  + Post-Condition
+  + Test Input: the objects or fields the actor interacts with and the specific data values entered (or object states created) by the actor when executing this test case.
+  + Any other comments / assumption</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
@@ -791,7 +1060,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="233">
   <si>
     <t>Description</t>
   </si>
@@ -895,9 +1164,6 @@
     <t>Test Case Description</t>
   </si>
   <si>
-    <t>Note: Pls. Remove inappropriate sheet(s), and/or add more sheets as needed</t>
-  </si>
-  <si>
     <t>Function Test Cases</t>
   </si>
   <si>
@@ -910,21 +1176,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Terms</t>
-  </si>
-  <si>
-    <t>Abbreviation</t>
-  </si>
-  <si>
-    <t>The page can be maintained in one Test Case spreadsheet only (The Generic Test Case spreadsheet is recommended to contain this page)</t>
-  </si>
-  <si>
-    <t>Note: This page is used for description of any Definition and/or Abbreviation for the project Test Cases.</t>
-  </si>
-  <si>
     <t>Category</t>
   </si>
   <si>
@@ -991,12 +1242,6 @@
     <t>XYZ 012</t>
   </si>
   <si>
-    <t>Pls. Remove italic blue texts.</t>
-  </si>
-  <si>
-    <t>Pls. Place customer logo (if any) here</t>
-  </si>
-  <si>
     <t>Website bán đồ điện tử</t>
   </si>
   <si>
@@ -1012,9 +1257,6 @@
     <t>Dương Công Minh</t>
   </si>
   <si>
-    <t>1.1</t>
-  </si>
-  <si>
     <t>Đăng nhập</t>
   </si>
   <si>
@@ -1069,9 +1311,6 @@
     <t>Nhấn vào nút đăng xuất</t>
   </si>
   <si>
-    <t>Trở về màn hình đăng nhập</t>
-  </si>
-  <si>
     <t>Các chỉ mục trên header</t>
   </si>
   <si>
@@ -1081,9 +1320,6 @@
     <t>Chức năng quay về trang chủ</t>
   </si>
   <si>
-    <t>Trở về màn hình trang chủ</t>
-  </si>
-  <si>
     <t>Tại bất kì đâu của trang web, bấm vào logo Phenikaa</t>
   </si>
   <si>
@@ -1418,6 +1654,113 @@
   </si>
   <si>
     <t>Automated Test Case</t>
+  </si>
+  <si>
+    <t>Chuyển sang màn hình đăng nhập và xóa phiên đăng nhập người dùng</t>
+  </si>
+  <si>
+    <t>Chuyển sang màn hình trang chủ</t>
+  </si>
+  <si>
+    <t>UI Test Cases</t>
+  </si>
+  <si>
+    <t>Giao diện hiển thị tốt trên nhiều trình duyệt</t>
+  </si>
+  <si>
+    <t>Website hiển thị giống với các trình duyệt khác</t>
+  </si>
+  <si>
+    <t>Website hiển thị đồng nhất ở mọi trình duyệt phổ biến</t>
+  </si>
+  <si>
+    <t>Nhập website và các trang web vào trình duyệt Chrome</t>
+  </si>
+  <si>
+    <t>Nhập website và các trang web vào trình duyệt Edge</t>
+  </si>
+  <si>
+    <t>Nhập website và các trang web vào trình duyệt Cốc cốc</t>
+  </si>
+  <si>
+    <t>Chia sẽ dữ liệu giữa các trình duyệt</t>
+  </si>
+  <si>
+    <t>Tạo tài khoản user hoặc thêm sản phẩm item ở trình duyệt bất kì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dữ liệu được cập nhật ở mọi trình duyệt, có thể đăng nhập và mua sản phẩm </t>
+  </si>
+  <si>
+    <t>Không có sự khác biệt giữa các trình duyệt</t>
+  </si>
+  <si>
+    <t>Màn hình giao diện ở các thiết bị</t>
+  </si>
+  <si>
+    <t>Thu nhỏ màn hình giao diện theo tỉ lệ dọc</t>
+  </si>
+  <si>
+    <t>Các phím chức năng hiển thị gọn gàng, không chồng chất, không bị che lấp</t>
+  </si>
+  <si>
+    <t>Hiển thị tốt trên nhiều tỉ lệ màn hình phổ biến</t>
+  </si>
+  <si>
+    <t>Giao diện website hiển thị tốt nhiều tỉ lệ màn hình</t>
+  </si>
+  <si>
+    <t>Giao diện giỏ hàng hiển thị tốt nhiều tỉ lệ màn hình</t>
+  </si>
+  <si>
+    <t>Thu nhỏ màn hình giao diện theo tỉ lệ dọc và bấm vào giỏ hàng</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách các sản phẩm đề xuất</t>
+  </si>
+  <si>
+    <t>Truy cập vào một sản phẩm bất kì và lướt xuống dưới</t>
+  </si>
+  <si>
+    <t>Hiển thị 4 sản phẩm ngẫu nhiên khác</t>
+  </si>
+  <si>
+    <t>Chỉ hiển thị các sản phẩm người dùng chưa mua</t>
+  </si>
+  <si>
+    <t>Các sản phẩm hiển thị không trùng với sản phẩm đang xem</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách các sản phẩm đề xuất phù hợp với người dùng</t>
+  </si>
+  <si>
+    <t>Hiển thị 
+sản phẩm</t>
+  </si>
+  <si>
+    <t>UIT 1</t>
+  </si>
+  <si>
+    <t>UIT 2</t>
+  </si>
+  <si>
+    <t>UIT 3</t>
+  </si>
+  <si>
+    <t>UIT 4</t>
+  </si>
+  <si>
+    <t>Các 
+trình duyệt</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Hoàn thành các test case</t>
+  </si>
+  <si>
+    <t>Dương Văn Trà, Dương Công Minh</t>
   </si>
 </sst>
 </file>
@@ -1741,7 +2084,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1888,6 +2231,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1914,6 +2314,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1926,12 +2332,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1941,36 +2347,48 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1993,48 +2411,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2043,165 +2419,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2209,24 +2466,170 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2243,6 +2646,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>792480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85090</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7964E83C-222A-8217-D8EE-15377DB5F64A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7914640" y="0"/>
+          <a:ext cx="2123440" cy="2162810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2627,69 +3096,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:J18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="125" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.1796875" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="2"/>
+    <col min="2" max="12" width="9.1796875" style="2"/>
+    <col min="13" max="13" width="11.6328125" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="N1" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-    </row>
-    <row r="2" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-    </row>
-    <row r="3" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-    </row>
-    <row r="4" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-    </row>
-    <row r="5" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
+    <row r="1" spans="1:16" s="4" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="76"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+    </row>
+    <row r="2" spans="1:16" s="4" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="76"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+    </row>
+    <row r="3" spans="1:16" s="4" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="76"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+    </row>
+    <row r="4" spans="1:16" s="4" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="76"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+    </row>
+    <row r="5" spans="1:16" s="4" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="76"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P6"/>
     </row>
     <row r="9" spans="1:16" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.6">
       <c r="A9" s="4"/>
@@ -2697,30 +3169,30 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
+      <c r="F9" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
     </row>
     <row r="10" spans="1:16" s="6" customFormat="1" ht="23" x14ac:dyDescent="0.5">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
+      <c r="E10" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="79"/>
     </row>
     <row r="11" spans="1:16" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="F11" s="7"/>
@@ -2738,402 +3210,421 @@
     </row>
     <row r="13" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="77"/>
+      <c r="P13" s="77"/>
     </row>
     <row r="14" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56" t="s">
+      <c r="C14" s="75"/>
+      <c r="D14" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56" t="s">
+      <c r="E14" s="75"/>
+      <c r="F14" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56" t="s">
+      <c r="G14" s="75"/>
+      <c r="H14" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56" t="s">
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56" t="s">
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="75"/>
     </row>
     <row r="15" spans="1:16" ht="13" x14ac:dyDescent="0.25">
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="72" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="72"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="55"/>
+      <c r="B15" s="81">
+        <v>45833</v>
+      </c>
+      <c r="C15" s="81"/>
+      <c r="D15" s="82" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="82"/>
+      <c r="F15" s="83" t="s">
+        <v>230</v>
+      </c>
+      <c r="G15" s="83"/>
+      <c r="H15" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="74"/>
+      <c r="O15" s="74"/>
+      <c r="P15" s="74"/>
     </row>
     <row r="16" spans="1:16" ht="13" x14ac:dyDescent="0.3">
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="88"/>
+      <c r="M16" s="88"/>
     </row>
     <row r="17" spans="2:13" ht="13" x14ac:dyDescent="0.3">
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56" t="s">
+      <c r="C17" s="75"/>
+      <c r="D17" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56" t="s">
+      <c r="E17" s="75"/>
+      <c r="F17" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56" t="s">
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="75"/>
     </row>
     <row r="18" spans="2:13" ht="13" x14ac:dyDescent="0.25">
-      <c r="B18" s="68">
-        <v>45828</v>
-      </c>
-      <c r="C18" s="69"/>
-      <c r="D18" s="72" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="72"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="65"/>
+      <c r="B18" s="89">
+        <v>45833</v>
+      </c>
+      <c r="C18" s="90"/>
+      <c r="D18" s="82" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="82"/>
+      <c r="F18" s="170" t="s">
+        <v>231</v>
+      </c>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="73" t="s">
+        <v>232</v>
+      </c>
+      <c r="L18" s="74"/>
+      <c r="M18" s="74"/>
     </row>
     <row r="19" spans="2:13" ht="13" x14ac:dyDescent="0.25">
-      <c r="B19" s="68"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="65"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="86"/>
     </row>
     <row r="20" spans="2:13" ht="13" x14ac:dyDescent="0.25">
-      <c r="B20" s="68"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="65"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="85"/>
+      <c r="M20" s="86"/>
     </row>
     <row r="21" spans="2:13" ht="13" x14ac:dyDescent="0.25">
-      <c r="B21" s="68"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="64"/>
-      <c r="M21" s="65"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="86"/>
     </row>
     <row r="22" spans="2:13" ht="13" x14ac:dyDescent="0.25">
-      <c r="B22" s="68"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="65"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="84"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="86"/>
     </row>
     <row r="23" spans="2:13" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="184" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="184"/>
+      <c r="D23" s="184"/>
+      <c r="E23" s="184" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="184"/>
+      <c r="G23" s="184" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67" t="s">
+      <c r="H23" s="184"/>
+      <c r="I23" s="184"/>
+      <c r="J23" s="184"/>
+      <c r="K23" s="184"/>
+      <c r="L23" s="184"/>
+      <c r="M23" s="184"/>
+    </row>
+    <row r="24" spans="2:13" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B24" s="185" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="187"/>
+      <c r="D24" s="187"/>
+      <c r="E24" s="187"/>
+      <c r="F24" s="187"/>
+      <c r="G24" s="187"/>
+      <c r="H24" s="186"/>
+      <c r="I24" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-    </row>
-    <row r="24" spans="2:13" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="B24" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
+      <c r="J24" s="186"/>
+      <c r="K24" s="185" t="s">
+        <v>36</v>
+      </c>
+      <c r="L24" s="187"/>
+      <c r="M24" s="186"/>
     </row>
     <row r="25" spans="2:13" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.25">
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="62"/>
+      <c r="B25" s="178"/>
+      <c r="C25" s="179"/>
+      <c r="D25" s="179"/>
+      <c r="E25" s="179"/>
+      <c r="F25" s="179"/>
+      <c r="G25" s="179"/>
+      <c r="H25" s="180"/>
+      <c r="I25" s="181"/>
+      <c r="J25" s="182"/>
+      <c r="K25" s="181"/>
+      <c r="L25" s="183"/>
+      <c r="M25" s="182"/>
     </row>
     <row r="26" spans="2:13" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.25">
-      <c r="B26" s="70"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="62"/>
-    </row>
-    <row r="27" spans="2:13" ht="13" x14ac:dyDescent="0.3">
-      <c r="B27" s="67" t="s">
+      <c r="B26" s="178"/>
+      <c r="C26" s="179"/>
+      <c r="D26" s="179"/>
+      <c r="E26" s="179"/>
+      <c r="F26" s="179"/>
+      <c r="G26" s="179"/>
+      <c r="H26" s="180"/>
+      <c r="I26" s="181"/>
+      <c r="J26" s="182"/>
+      <c r="K26" s="181"/>
+      <c r="L26" s="183"/>
+      <c r="M26" s="182"/>
+    </row>
+    <row r="27" spans="2:13" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+      <c r="B27" s="91"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="91"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="83"/>
+      <c r="L27" s="83"/>
+      <c r="M27" s="83"/>
+    </row>
+    <row r="28" spans="2:13" ht="13" x14ac:dyDescent="0.3">
+      <c r="B28" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="67"/>
-    </row>
-    <row r="28" spans="2:13" ht="13" x14ac:dyDescent="0.3">
-      <c r="B28" s="56" t="s">
+      <c r="C28" s="87"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="87"/>
+      <c r="J28" s="87"/>
+      <c r="K28" s="87"/>
+      <c r="L28" s="87"/>
+      <c r="M28" s="87"/>
+    </row>
+    <row r="29" spans="2:13" ht="13" x14ac:dyDescent="0.3">
+      <c r="B29" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56" t="s">
+      <c r="C29" s="75"/>
+      <c r="D29" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56" t="s">
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="H28" s="56"/>
-    </row>
-    <row r="29" spans="2:13" ht="13" x14ac:dyDescent="0.25">
-      <c r="B29" s="68"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
+      <c r="H29" s="75"/>
     </row>
     <row r="30" spans="2:13" ht="13" x14ac:dyDescent="0.25">
-      <c r="B30" s="68"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="83"/>
     </row>
     <row r="31" spans="2:13" ht="13" x14ac:dyDescent="0.25">
-      <c r="B31" s="68"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="83"/>
     </row>
     <row r="32" spans="2:13" ht="13" x14ac:dyDescent="0.25">
-      <c r="B32" s="68"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="83"/>
     </row>
     <row r="33" spans="2:8" ht="13" x14ac:dyDescent="0.25">
-      <c r="B33" s="68"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="83"/>
     </row>
     <row r="34" spans="2:8" ht="13" x14ac:dyDescent="0.25">
-      <c r="B34" s="68"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-    </row>
-    <row r="35" spans="2:8" ht="13" x14ac:dyDescent="0.3">
-      <c r="B35" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="B34" s="89"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="83"/>
+    </row>
+    <row r="35" spans="2:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="B35" s="89"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="83"/>
+      <c r="H35" s="83"/>
     </row>
     <row r="36" spans="2:8" ht="13" x14ac:dyDescent="0.3">
-      <c r="B36" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="2:8" ht="13" x14ac:dyDescent="0.3">
+      <c r="B37" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="74">
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="F21:J21"/>
+  <mergeCells count="77">
+    <mergeCell ref="K26:M26"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="F18:J18"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:J15"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="I26:J26"/>
     <mergeCell ref="K18:M18"/>
     <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="G31:H31"/>
     <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="D31:F31"/>
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
     <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G30:H30"/>
     <mergeCell ref="N15:P15"/>
     <mergeCell ref="K14:M14"/>
-    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
     <mergeCell ref="B16:M16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B27:M27"/>
+    <mergeCell ref="B28:M28"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="I27:J27"/>
     <mergeCell ref="K24:M24"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="K20:M20"/>
@@ -3144,6 +3635,8 @@
     <mergeCell ref="F22:J22"/>
     <mergeCell ref="K25:M25"/>
     <mergeCell ref="B23:M23"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="F21:J21"/>
     <mergeCell ref="K15:M15"/>
     <mergeCell ref="K17:M17"/>
     <mergeCell ref="A1:E5"/>
@@ -3164,590 +3657,17 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:N2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="0.81640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="13" x14ac:dyDescent="0.3">
-      <c r="B1" s="77" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
-      <c r="B2" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-    </row>
-    <row r="4" spans="1:15" ht="13" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-    </row>
-    <row r="5" spans="1:15" ht="13" x14ac:dyDescent="0.3">
-      <c r="B5" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="73"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="73"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="73"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="76"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="73"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="76"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="73"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="76"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="73"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="76"/>
-      <c r="M11" s="76"/>
-      <c r="N11" s="76"/>
-      <c r="O11" s="76"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="73"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="76"/>
-      <c r="O12" s="76"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="73"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="76"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="76"/>
-      <c r="O13" s="76"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="73"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="76"/>
-      <c r="O14" s="76"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="73"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="76"/>
-      <c r="N15" s="76"/>
-      <c r="O15" s="76"/>
-    </row>
-    <row r="16" spans="1:15" ht="13" x14ac:dyDescent="0.3">
-      <c r="B16" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-    </row>
-    <row r="17" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="73"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="76"/>
-      <c r="N18" s="76"/>
-      <c r="O18" s="76"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="73"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="76"/>
-      <c r="N19" s="76"/>
-      <c r="O19" s="76"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="73"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="76"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="73"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="76"/>
-      <c r="M21" s="76"/>
-      <c r="N21" s="76"/>
-      <c r="O21" s="76"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="73"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="76"/>
-      <c r="M22" s="76"/>
-      <c r="N22" s="76"/>
-      <c r="O22" s="76"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="73"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="76"/>
-      <c r="O23" s="76"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="73"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="76"/>
-      <c r="N24" s="76"/>
-      <c r="O24" s="76"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="73"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="76"/>
-      <c r="L25" s="76"/>
-      <c r="M25" s="76"/>
-      <c r="N25" s="76"/>
-      <c r="O25" s="76"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="73"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="76"/>
-      <c r="O26" s="76"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="73"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="76"/>
-      <c r="N27" s="76"/>
-      <c r="O27" s="76"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="73"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="76"/>
-      <c r="M28" s="76"/>
-      <c r="N28" s="76"/>
-      <c r="O28" s="76"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="73"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="76"/>
-      <c r="K29" s="76"/>
-      <c r="L29" s="76"/>
-      <c r="M29" s="76"/>
-      <c r="N29" s="76"/>
-      <c r="O29" s="76"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="73"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="76"/>
-      <c r="M30" s="76"/>
-      <c r="N30" s="76"/>
-      <c r="O30" s="76"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="73"/>
-      <c r="C31" s="74"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="76"/>
-      <c r="M31" s="76"/>
-      <c r="N31" s="76"/>
-      <c r="O31" s="76"/>
-    </row>
-  </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="E31:O31"/>
-    <mergeCell ref="E23:O23"/>
-    <mergeCell ref="E24:O24"/>
-    <mergeCell ref="E25:O25"/>
-    <mergeCell ref="E26:O26"/>
-    <mergeCell ref="E27:O27"/>
-    <mergeCell ref="E28:O28"/>
-    <mergeCell ref="E29:O29"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="E5:O5"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E30:O30"/>
-    <mergeCell ref="E20:O20"/>
-    <mergeCell ref="E21:O21"/>
-    <mergeCell ref="E22:O22"/>
-    <mergeCell ref="E10:O10"/>
-    <mergeCell ref="E11:O11"/>
-    <mergeCell ref="E12:O12"/>
-    <mergeCell ref="E13:O13"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="E15:O15"/>
-    <mergeCell ref="B16:O16"/>
-    <mergeCell ref="E17:O17"/>
-    <mergeCell ref="E19:O19"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E18:O18"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E6:O6"/>
-    <mergeCell ref="E7:O7"/>
-    <mergeCell ref="E8:O8"/>
-    <mergeCell ref="E9:O9"/>
-    <mergeCell ref="E14:O14"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-  </mergeCells>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H52" sqref="H52"/>
+      <pane ySplit="8" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3765,17 +3685,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.5">
-      <c r="A1" s="82" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
+      <c r="A1" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="22"/>
@@ -3850,7 +3770,7 @@
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
       <c r="H6" s="24" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I6" s="44">
         <f>COUNTA(C9:C2022)</f>
@@ -3859,35 +3779,35 @@
     </row>
     <row r="7" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
-      <c r="B7" s="83" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="83" t="s">
+      <c r="B7" s="108" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="83" t="s">
+      <c r="D7" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="85" t="s">
+      <c r="E7" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="86"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="83" t="s">
+      <c r="F7" s="111"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="83" t="s">
+      <c r="I7" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="83" t="s">
-        <v>177</v>
+      <c r="J7" s="108" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
       <c r="E8" s="26" t="s">
         <v>30</v>
       </c>
@@ -3897,770 +3817,770 @@
       <c r="G8" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
     </row>
     <row r="9" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
-      <c r="B9" s="79" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="88" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="91" t="s">
-        <v>87</v>
+      <c r="B9" s="92" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="94" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="97" t="s">
+        <v>78</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="G9" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="94" t="s">
-        <v>83</v>
-      </c>
-      <c r="I9" s="149" t="s">
+      <c r="H9" s="100" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="J9" s="161"/>
+      <c r="J9" s="129"/>
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="92"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="98"/>
       <c r="E10" s="30" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="G10" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="95"/>
-      <c r="I10" s="150"/>
-      <c r="J10" s="158"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="130"/>
     </row>
     <row r="11" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="92"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="98"/>
       <c r="E11" s="30" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G11" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="95"/>
-      <c r="I11" s="150"/>
-      <c r="J11" s="158"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="130"/>
     </row>
     <row r="12" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="92"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="98"/>
       <c r="E12" s="30" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="G12" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="H12" s="95"/>
-      <c r="I12" s="150"/>
-      <c r="J12" s="158"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="130"/>
     </row>
     <row r="13" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="92"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="98"/>
       <c r="E13" s="30" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="G13" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="95"/>
-      <c r="I13" s="150"/>
-      <c r="J13" s="158"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="130"/>
     </row>
     <row r="14" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="92"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="98"/>
       <c r="E14" s="30" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G14" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H14" s="95"/>
-      <c r="I14" s="150"/>
-      <c r="J14" s="158"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="130"/>
     </row>
     <row r="15" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="93"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="99"/>
       <c r="E15" s="30" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="G15" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H15" s="96"/>
-      <c r="I15" s="151"/>
-      <c r="J15" s="158"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="118"/>
+      <c r="J15" s="130"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="88" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="102" t="s">
-        <v>88</v>
+      <c r="B16" s="93"/>
+      <c r="C16" s="94" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="113" t="s">
+        <v>79</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="G16" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H16" s="94" t="s">
-        <v>86</v>
-      </c>
-      <c r="I16" s="149" t="s">
+      <c r="H16" s="100" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="J16" s="158"/>
+      <c r="J16" s="130"/>
     </row>
     <row r="17" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="103"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="114"/>
       <c r="E17" s="33" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="G17" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="95"/>
-      <c r="I17" s="150"/>
-      <c r="J17" s="158"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="130"/>
     </row>
     <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="103"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="114"/>
       <c r="E18" s="30" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G18" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H18" s="95"/>
-      <c r="I18" s="150"/>
-      <c r="J18" s="158"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="130"/>
     </row>
     <row r="19" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="104"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="115"/>
       <c r="E19" s="30" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="G19" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H19" s="96"/>
-      <c r="I19" s="151"/>
-      <c r="J19" s="158"/>
-    </row>
-    <row r="20" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="102"/>
+      <c r="I19" s="118"/>
+      <c r="J19" s="130"/>
+    </row>
+    <row r="20" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
-      <c r="B20" s="80"/>
+      <c r="B20" s="93"/>
       <c r="C20" s="18" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F20" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G20" s="125" t="s">
+        <v>198</v>
+      </c>
+      <c r="G20" s="54" t="s">
         <v>1</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="I20" s="152" t="s">
+        <v>126</v>
+      </c>
+      <c r="I20" s="64" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
-      <c r="B21" s="79" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21" s="88" t="s">
+      <c r="B21" s="92" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="94" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="113" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="100" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="100" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="102" t="s">
+      <c r="G21" s="94" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="100" t="s">
         <v>101</v>
       </c>
-      <c r="E21" s="94" t="s">
-        <v>102</v>
-      </c>
-      <c r="F21" s="94" t="s">
-        <v>105</v>
-      </c>
-      <c r="G21" s="88" t="s">
+      <c r="I21" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="H21" s="94" t="s">
-        <v>112</v>
-      </c>
-      <c r="I21" s="143" t="s">
-        <v>2</v>
-      </c>
-      <c r="J21" s="159" t="s">
-        <v>178</v>
+      <c r="J21" s="131" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="144"/>
-      <c r="J22" s="160"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="102"/>
+      <c r="I22" s="120"/>
+      <c r="J22" s="132"/>
     </row>
     <row r="23" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="88" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="102" t="s">
-        <v>103</v>
+      <c r="B23" s="93"/>
+      <c r="C23" s="94" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="113" t="s">
+        <v>92</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F23" s="29" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="G23" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H23" s="94" t="s">
-        <v>115</v>
-      </c>
-      <c r="I23" s="149" t="s">
+      <c r="H23" s="100" t="s">
+        <v>104</v>
+      </c>
+      <c r="I23" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="J23" s="158"/>
+      <c r="J23" s="130"/>
     </row>
     <row r="24" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
-      <c r="B24" s="80"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="103"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="114"/>
       <c r="E24" s="30" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F24" s="31" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G24" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H24" s="95"/>
-      <c r="I24" s="150"/>
-      <c r="J24" s="158"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="130"/>
     </row>
     <row r="25" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
-      <c r="B25" s="80"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="95" t="s">
-        <v>110</v>
+      <c r="B25" s="93"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="101" t="s">
+        <v>99</v>
       </c>
       <c r="F25" s="31" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="G25" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H25" s="95"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="158"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="130"/>
     </row>
     <row r="26" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22"/>
-      <c r="B26" s="80"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="95"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="101"/>
       <c r="F26" s="31" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="G26" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="H26" s="95"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="158"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="117"/>
+      <c r="J26" s="130"/>
     </row>
     <row r="27" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
-      <c r="B27" s="80"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="104"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="96"/>
+      <c r="D27" s="115"/>
       <c r="E27" s="30" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F27" s="53" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="G27" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H27" s="96"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="158"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="118"/>
+      <c r="J27" s="130"/>
     </row>
     <row r="28" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="22"/>
-      <c r="B28" s="80"/>
-      <c r="C28" s="88" t="s">
-        <v>106</v>
-      </c>
-      <c r="D28" s="100" t="s">
-        <v>113</v>
+      <c r="B28" s="93"/>
+      <c r="C28" s="94" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="136" t="s">
+        <v>102</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="F28" s="28" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="G28" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H28" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="I28" s="149" t="s">
+      <c r="H28" s="100" t="s">
+        <v>105</v>
+      </c>
+      <c r="I28" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="J28" s="158"/>
+      <c r="J28" s="130"/>
     </row>
     <row r="29" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="22"/>
-      <c r="B29" s="80"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="101"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="137"/>
       <c r="E29" s="32" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="F29" s="32" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="G29" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H29" s="96"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="158"/>
+      <c r="H29" s="102"/>
+      <c r="I29" s="118"/>
+      <c r="J29" s="130"/>
     </row>
     <row r="30" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
-      <c r="B30" s="81"/>
+      <c r="B30" s="106"/>
       <c r="C30" s="18" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E30" s="37" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="F30" s="39" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="G30" s="43" t="s">
         <v>1</v>
       </c>
       <c r="H30" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="I30" s="152" t="s">
+        <v>138</v>
+      </c>
+      <c r="I30" s="64" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22"/>
-      <c r="B31" s="79" t="s">
-        <v>93</v>
-      </c>
-      <c r="C31" s="98" t="s">
-        <v>117</v>
-      </c>
-      <c r="D31" s="102" t="s">
-        <v>95</v>
-      </c>
-      <c r="E31" s="94" t="s">
-        <v>97</v>
-      </c>
-      <c r="F31" s="97" t="s">
-        <v>96</v>
-      </c>
-      <c r="G31" s="123" t="s">
+      <c r="B31" s="92" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="104" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="113" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="100" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" s="103" t="s">
+        <v>199</v>
+      </c>
+      <c r="G31" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="H31" s="97" t="s">
-        <v>98</v>
-      </c>
-      <c r="I31" s="153" t="s">
+      <c r="H31" s="103" t="s">
+        <v>87</v>
+      </c>
+      <c r="I31" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="J31" s="158"/>
+      <c r="J31" s="130"/>
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="22"/>
-      <c r="B32" s="80"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="104"/>
-      <c r="E32" s="96"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="88"/>
-      <c r="H32" s="97"/>
-      <c r="I32" s="153"/>
-      <c r="J32" s="158"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="115"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="127"/>
+      <c r="J32" s="130"/>
     </row>
     <row r="33" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="22"/>
-      <c r="B33" s="80"/>
-      <c r="C33" s="98" t="s">
-        <v>118</v>
-      </c>
-      <c r="D33" s="102" t="s">
-        <v>100</v>
+      <c r="B33" s="93"/>
+      <c r="C33" s="104" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="113" t="s">
+        <v>89</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F33" s="31" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="G33" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H33" s="106" t="s">
-        <v>136</v>
-      </c>
-      <c r="I33" s="150" t="s">
+      <c r="H33" s="124" t="s">
+        <v>125</v>
+      </c>
+      <c r="I33" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="J33" s="158"/>
+      <c r="J33" s="130"/>
     </row>
     <row r="34" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22"/>
-      <c r="B34" s="80"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="103"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="126"/>
+      <c r="D34" s="114"/>
       <c r="E34" s="30" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="F34" s="31" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G34" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H34" s="106"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="158"/>
+      <c r="H34" s="124"/>
+      <c r="I34" s="117"/>
+      <c r="J34" s="130"/>
     </row>
     <row r="35" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="22"/>
-      <c r="B35" s="80"/>
-      <c r="C35" s="99"/>
-      <c r="D35" s="104"/>
+      <c r="B35" s="93"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="115"/>
       <c r="E35" s="32" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F35" s="50" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="G35" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H35" s="107"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="158"/>
+      <c r="H35" s="125"/>
+      <c r="I35" s="118"/>
+      <c r="J35" s="130"/>
     </row>
     <row r="36" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22"/>
-      <c r="B36" s="80"/>
-      <c r="C36" s="98" t="s">
-        <v>124</v>
-      </c>
-      <c r="D36" s="102" t="s">
-        <v>125</v>
+      <c r="B36" s="93"/>
+      <c r="C36" s="104" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" s="113" t="s">
+        <v>114</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="F36" s="36" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="G36" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="H36" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="I36" s="145" t="s">
+      <c r="H36" s="100" t="s">
+        <v>120</v>
+      </c>
+      <c r="I36" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="J36" s="158"/>
+      <c r="J36" s="130"/>
     </row>
     <row r="37" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="22"/>
-      <c r="B37" s="80"/>
-      <c r="C37" s="105"/>
-      <c r="D37" s="103"/>
+      <c r="B37" s="93"/>
+      <c r="C37" s="126"/>
+      <c r="D37" s="114"/>
       <c r="E37" s="30" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="F37" s="36" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="G37" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="H37" s="95"/>
-      <c r="I37" s="146"/>
-      <c r="J37" s="158"/>
+      <c r="H37" s="101"/>
+      <c r="I37" s="122"/>
+      <c r="J37" s="130"/>
     </row>
     <row r="38" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="22"/>
-      <c r="B38" s="80"/>
-      <c r="C38" s="99"/>
-      <c r="D38" s="104"/>
+      <c r="B38" s="93"/>
+      <c r="C38" s="105"/>
+      <c r="D38" s="115"/>
       <c r="E38" s="32" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="F38" s="38" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="G38" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="H38" s="96"/>
-      <c r="I38" s="147"/>
-      <c r="J38" s="158"/>
+      <c r="H38" s="102"/>
+      <c r="I38" s="123"/>
+      <c r="J38" s="130"/>
     </row>
     <row r="39" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
-      <c r="B39" s="81"/>
+      <c r="B39" s="106"/>
       <c r="C39" s="43" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D39" s="39" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="F39" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="G39" s="162" t="s">
+        <v>124</v>
+      </c>
+      <c r="G39" s="67" t="s">
         <v>4</v>
       </c>
       <c r="H39" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="I39" s="148" t="s">
+        <v>124</v>
+      </c>
+      <c r="I39" s="63" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="22"/>
-      <c r="B40" s="79" t="s">
-        <v>160</v>
-      </c>
-      <c r="C40" s="94" t="s">
-        <v>191</v>
-      </c>
-      <c r="D40" s="94" t="s">
-        <v>194</v>
+      <c r="B40" s="92" t="s">
+        <v>149</v>
+      </c>
+      <c r="C40" s="100" t="s">
+        <v>180</v>
+      </c>
+      <c r="D40" s="100" t="s">
+        <v>183</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="F40" s="28" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G40" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H40" s="94" t="s">
-        <v>196</v>
-      </c>
-      <c r="I40" s="165" t="s">
+      <c r="H40" s="100" t="s">
+        <v>185</v>
+      </c>
+      <c r="I40" s="134" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="22"/>
-      <c r="B41" s="81"/>
-      <c r="C41" s="96"/>
-      <c r="D41" s="96"/>
+      <c r="B41" s="106"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="102"/>
       <c r="E41" s="30" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F41" s="30" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="G41" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H41" s="78"/>
-      <c r="I41" s="166"/>
+      <c r="H41" s="133"/>
+      <c r="I41" s="135"/>
     </row>
     <row r="42" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22"/>
-      <c r="B42" s="79" t="s">
-        <v>160</v>
-      </c>
-      <c r="C42" s="129" t="s">
-        <v>197</v>
-      </c>
-      <c r="D42" s="94" t="s">
-        <v>198</v>
+      <c r="B42" s="92" t="s">
+        <v>149</v>
+      </c>
+      <c r="C42" s="139" t="s">
+        <v>186</v>
+      </c>
+      <c r="D42" s="100" t="s">
+        <v>187</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="F42" s="29" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G42" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H42" s="94" t="s">
-        <v>206</v>
-      </c>
-      <c r="I42" s="165" t="s">
+      <c r="H42" s="100" t="s">
+        <v>195</v>
+      </c>
+      <c r="I42" s="134" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
-      <c r="B43" s="80"/>
-      <c r="C43" s="163"/>
-      <c r="D43" s="95"/>
+      <c r="B43" s="93"/>
+      <c r="C43" s="140"/>
+      <c r="D43" s="101"/>
       <c r="E43" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="F43" s="124" t="s">
-        <v>78</v>
+        <v>189</v>
+      </c>
+      <c r="F43" s="31" t="s">
+        <v>69</v>
       </c>
       <c r="G43" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H43" s="95"/>
-      <c r="I43" s="167"/>
+      <c r="H43" s="101"/>
+      <c r="I43" s="138"/>
     </row>
     <row r="44" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="22"/>
-      <c r="B44" s="80"/>
-      <c r="C44" s="163"/>
-      <c r="D44" s="95"/>
+      <c r="B44" s="93"/>
+      <c r="C44" s="140"/>
+      <c r="D44" s="101"/>
       <c r="E44" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="F44" s="124" t="s">
-        <v>203</v>
+        <v>190</v>
+      </c>
+      <c r="F44" s="31" t="s">
+        <v>192</v>
       </c>
       <c r="G44" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="H44" s="95"/>
-      <c r="I44" s="167"/>
+      <c r="H44" s="101"/>
+      <c r="I44" s="138"/>
     </row>
     <row r="45" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="81"/>
-      <c r="C45" s="130"/>
-      <c r="D45" s="96"/>
+      <c r="B45" s="106"/>
+      <c r="C45" s="141"/>
+      <c r="D45" s="102"/>
       <c r="E45" s="32" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="F45" s="50" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="G45" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H45" s="96"/>
-      <c r="I45" s="166"/>
+      <c r="H45" s="102"/>
+      <c r="I45" s="135"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="164"/>
+      <c r="B46" s="68"/>
       <c r="C46" s="21"/>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
@@ -4670,7 +4590,7 @@
       <c r="I46" s="19"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="164"/>
+      <c r="B47" s="68"/>
       <c r="C47" s="21"/>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
@@ -4680,7 +4600,7 @@
       <c r="I47" s="19"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="164"/>
+      <c r="B48" s="68"/>
       <c r="C48" s="21"/>
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
@@ -4767,54 +4687,45 @@
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="C42:C45"/>
     <mergeCell ref="B42:B45"/>
-    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="H23:H27"/>
+    <mergeCell ref="I23:I27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="I28:I29"/>
     <mergeCell ref="H40:H41"/>
     <mergeCell ref="I40:I41"/>
     <mergeCell ref="D40:D41"/>
     <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C36:C38"/>
     <mergeCell ref="J23:J27"/>
     <mergeCell ref="J28:J29"/>
     <mergeCell ref="J31:J32"/>
     <mergeCell ref="J33:J35"/>
     <mergeCell ref="J36:J38"/>
-    <mergeCell ref="E21:E22"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="J9:J15"/>
     <mergeCell ref="J16:J19"/>
     <mergeCell ref="J21:J22"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="B31:B39"/>
+    <mergeCell ref="I9:I15"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
     <mergeCell ref="I36:I38"/>
     <mergeCell ref="H36:H38"/>
     <mergeCell ref="D36:D38"/>
     <mergeCell ref="H33:H35"/>
     <mergeCell ref="I33:I35"/>
     <mergeCell ref="D33:D35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I9:I15"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="H16:H19"/>
     <mergeCell ref="I16:I19"/>
     <mergeCell ref="H21:H22"/>
     <mergeCell ref="I21:I22"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="C23:C27"/>
     <mergeCell ref="F21:F22"/>
-    <mergeCell ref="H23:H27"/>
-    <mergeCell ref="I23:I27"/>
     <mergeCell ref="G21:G22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="I28:I29"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
@@ -4829,6 +4740,15 @@
     <mergeCell ref="H31:H32"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="B21:B30"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="B31:B39"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E25:E26"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -4843,18 +4763,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27F3483-084F-4A43-B0FB-A5AC92DC555A}">
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="0.6328125" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" customWidth="1"/>
     <col min="3" max="3" width="11.36328125" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.81640625" bestFit="1" customWidth="1"/>
@@ -4865,17 +4785,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.5">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="22"/>
@@ -4950,7 +4870,7 @@
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
       <c r="H6" s="24" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I6" s="44">
         <f>COUNTA(C11:C2015)</f>
@@ -4959,35 +4879,35 @@
     </row>
     <row r="7" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
-      <c r="B7" s="83" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="83" t="s">
+      <c r="B7" s="108" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="83" t="s">
+      <c r="D7" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="85" t="s">
+      <c r="E7" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="86"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="83" t="s">
+      <c r="F7" s="111"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="83" t="s">
+      <c r="I7" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="83" t="s">
-        <v>177</v>
+      <c r="J7" s="108" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
+      <c r="B8" s="145"/>
+      <c r="C8" s="145"/>
+      <c r="D8" s="145"/>
       <c r="E8" s="26" t="s">
         <v>30</v>
       </c>
@@ -4997,206 +4917,206 @@
       <c r="G8" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
+      <c r="H8" s="145"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="145"/>
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
-      <c r="B9" s="79" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="121" t="s">
+      <c r="B9" s="92" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="171" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="148" t="s">
         <v>139</v>
       </c>
-      <c r="D9" s="135" t="s">
-        <v>150</v>
-      </c>
       <c r="E9" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="F9" s="142" t="s">
-        <v>174</v>
-      </c>
-      <c r="G9" s="128" t="s">
+        <v>162</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>163</v>
+      </c>
+      <c r="G9" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="H9" s="136" t="s">
-        <v>151</v>
-      </c>
-      <c r="I9" s="154" t="s">
+      <c r="H9" s="146" t="s">
+        <v>140</v>
+      </c>
+      <c r="I9" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="J9" s="158"/>
+      <c r="J9" s="130"/>
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="121"/>
-      <c r="D10" s="136"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="149"/>
+      <c r="D10" s="146"/>
       <c r="E10" s="30" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="G10" s="138" t="s">
+        <v>164</v>
+      </c>
+      <c r="G10" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="137"/>
-      <c r="I10" s="155"/>
-      <c r="J10" s="158"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="151"/>
+      <c r="J10" s="130"/>
     </row>
     <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
-      <c r="B11" s="81"/>
+      <c r="B11" s="106"/>
       <c r="C11" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>196</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="F11" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="G11" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="I11" s="66" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="177" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="G12" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="D11" s="139" t="s">
-        <v>207</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="F11" s="139" t="s">
-        <v>171</v>
-      </c>
-      <c r="G11" s="140" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="141" t="s">
-        <v>172</v>
-      </c>
-      <c r="I11" s="156" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="47" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="122" t="s">
-        <v>154</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="G12" s="125" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="I12" s="157" t="s">
+      <c r="I12" s="65" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
-      <c r="B13" s="120" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" s="131" t="s">
-        <v>162</v>
-      </c>
-      <c r="D13" s="134" t="s">
-        <v>140</v>
+      <c r="B13" s="153" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="154" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" s="142" t="s">
+        <v>129</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="G13" s="126" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="129" t="s">
-        <v>157</v>
-      </c>
-      <c r="I13" s="108" t="s">
+      <c r="H13" s="139" t="s">
+        <v>146</v>
+      </c>
+      <c r="I13" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="158"/>
-    </row>
-    <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="130"/>
+    </row>
+    <row r="14" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
-      <c r="B14" s="120"/>
-      <c r="C14" s="132"/>
-      <c r="D14" s="134"/>
+      <c r="B14" s="153"/>
+      <c r="C14" s="172"/>
+      <c r="D14" s="142"/>
       <c r="E14" s="32" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="G14" s="127" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="H14" s="130"/>
-      <c r="I14" s="109"/>
-      <c r="J14" s="158"/>
-    </row>
-    <row r="15" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="141"/>
+      <c r="I14" s="144"/>
+      <c r="J14" s="130"/>
+    </row>
+    <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
-      <c r="B15" s="120" t="s">
-        <v>161</v>
-      </c>
-      <c r="C15" s="98" t="s">
-        <v>169</v>
-      </c>
-      <c r="D15" s="133" t="s">
-        <v>163</v>
+      <c r="B15" s="176" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="104" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" s="152" t="s">
+        <v>152</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="G15" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H15" s="136" t="s">
-        <v>168</v>
-      </c>
-      <c r="I15" s="143" t="s">
+      <c r="H15" s="146" t="s">
+        <v>157</v>
+      </c>
+      <c r="I15" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="J15" s="159" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J15" s="131" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
-      <c r="B16" s="120"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="133"/>
+      <c r="B16" s="176"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="152"/>
       <c r="E16" s="32" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="G16" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="H16" s="137"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="160"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="132"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
       <c r="B17" s="47"/>
-      <c r="C17" s="45"/>
+      <c r="C17" s="169"/>
       <c r="D17" s="46"/>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
@@ -5536,21 +5456,22 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="C13:C14"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="H9:H10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C9:C10"/>
     <mergeCell ref="I9:I10"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="H15:H16"/>
     <mergeCell ref="I15:I16"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
@@ -5558,13 +5479,747 @@
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C9:C10"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13 I19 I23:I24 I26 I29 I17 I32:I48 I15" xr:uid="{2EEFFE48-0949-4D00-ABE5-F13E31C6E209}">
+      <formula1>$H$2:$H$5</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47455BC6-A25C-4AF8-A65A-E22EEF8BDFA4}">
+  <dimension ref="A1:J49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="0.6328125" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.81640625" customWidth="1"/>
+    <col min="5" max="5" width="39.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.08984375" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" customWidth="1"/>
+    <col min="8" max="8" width="46.26953125" customWidth="1"/>
+    <col min="9" max="9" width="12.1796875" style="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.5">
+      <c r="A1" s="107" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+    </row>
+    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="44">
+        <f>COUNTIF($I$13:$I$2017, "Passed")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="44">
+        <f>COUNTIF($I$13:$I$2017, "Failed")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="44">
+        <f>COUNTIF($I$13:$I$2017, "Not Run")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="44">
+        <f>COUNTIF($I$13:$I$2017, "Not Completed")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="44">
+        <f>COUNTA(C12:C2016)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="108" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="108" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="108" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="110" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="111"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="108" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="108" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="108" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="145"/>
+      <c r="C8" s="145"/>
+      <c r="D8" s="145"/>
+      <c r="E8" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="145"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="145"/>
+    </row>
+    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
+      <c r="B9" s="94" t="s">
+        <v>229</v>
+      </c>
+      <c r="C9" s="171" t="s">
+        <v>225</v>
+      </c>
+      <c r="D9" s="103" t="s">
+        <v>201</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>202</v>
+      </c>
+      <c r="G9" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="146" t="s">
+        <v>203</v>
+      </c>
+      <c r="I9" s="150" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="130"/>
+    </row>
+    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="149"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="F10" s="62" t="s">
+        <v>202</v>
+      </c>
+      <c r="G10" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="164"/>
+      <c r="I10" s="165"/>
+      <c r="J10" s="130"/>
+    </row>
+    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="149"/>
+      <c r="D11" s="166"/>
+      <c r="E11" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="F11" s="62" t="s">
+        <v>202</v>
+      </c>
+      <c r="G11" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="147"/>
+      <c r="I11" s="151"/>
+      <c r="J11" s="130"/>
+    </row>
+    <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="F12" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="G12" s="168" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="61" t="s">
+        <v>210</v>
+      </c>
+      <c r="I12" s="66" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="94" t="s">
+        <v>211</v>
+      </c>
+      <c r="C13" s="94" t="s">
+        <v>227</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="F13" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="167" t="s">
+        <v>214</v>
+      </c>
+      <c r="I13" s="94" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="130"/>
+    </row>
+    <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="F14" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="G14" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="125"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="130"/>
+    </row>
+    <row r="15" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="128" t="s">
+        <v>224</v>
+      </c>
+      <c r="C15" s="104" t="s">
+        <v>228</v>
+      </c>
+      <c r="D15" s="103" t="s">
+        <v>218</v>
+      </c>
+      <c r="E15" s="100" t="s">
+        <v>219</v>
+      </c>
+      <c r="F15" s="69" t="s">
+        <v>220</v>
+      </c>
+      <c r="G15" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="174" t="s">
+        <v>223</v>
+      </c>
+      <c r="I15" s="116" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="131"/>
+    </row>
+    <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="G16" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="174"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="131"/>
+    </row>
+    <row r="17" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="128"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="173"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="70" t="s">
+        <v>221</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="175"/>
+      <c r="I17" s="118"/>
+      <c r="J17" s="132"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="52"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="52"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="52"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="52"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="52"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="52"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="52"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="52"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="52"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="52"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="22"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="34"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="22"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="34"/>
+    </row>
+    <row r="30" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+      <c r="A30" s="22"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="34"/>
+    </row>
+    <row r="31" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+      <c r="A31" s="22"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="34"/>
+    </row>
+    <row r="32" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+      <c r="A32" s="22"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="34"/>
+    </row>
+    <row r="33" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+      <c r="A33" s="22"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="34"/>
+    </row>
+    <row r="34" spans="1:9" ht="46" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="22"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+    </row>
+    <row r="35" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="22"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="22"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="22"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="22"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="20"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="20"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="20"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="20"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="20"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="20"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="20"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="20"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="20"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="20"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="20"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I15:I16 I20 I24:I25 I27 I30 I18 I33:I49" xr:uid="{87D8F6BD-7494-4252-B926-12DC85EF0A22}">
       <formula1>$H$2:$H$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -5577,7 +6232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
@@ -5595,16 +6250,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="111" t="s">
-        <v>208</v>
-      </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
+      <c r="A1" s="155" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
     </row>
     <row r="2" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="B2" s="16"/>
@@ -5646,7 +6301,7 @@
     </row>
     <row r="6" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="G6" s="12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H6" s="9">
         <f>COUNTA(C9:C2000)</f>
@@ -5654,88 +6309,88 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="13" x14ac:dyDescent="0.25">
-      <c r="B7" s="112" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="112" t="s">
+      <c r="B7" s="156" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="156" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="112" t="s">
+      <c r="D7" s="156" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="114" t="s">
+      <c r="E7" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="115"/>
-      <c r="G7" s="112" t="s">
+      <c r="F7" s="159"/>
+      <c r="G7" s="156" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="112" t="s">
+      <c r="H7" s="156" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="13" x14ac:dyDescent="0.25">
-      <c r="B8" s="113"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
+      <c r="B8" s="157"/>
+      <c r="C8" s="157"/>
+      <c r="D8" s="157"/>
       <c r="E8" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="113"/>
-      <c r="H8" s="113"/>
+      <c r="G8" s="157"/>
+      <c r="H8" s="157"/>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="117" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="116" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="118"/>
+      <c r="B9" s="161" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="160" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="162"/>
       <c r="E9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="119"/>
-      <c r="H9" s="116" t="s">
+      <c r="G9" s="163"/>
+      <c r="H9" s="160" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="117"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="118"/>
+      <c r="B10" s="161"/>
+      <c r="C10" s="160"/>
+      <c r="D10" s="162"/>
       <c r="E10" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="119"/>
-      <c r="H10" s="116"/>
+      <c r="G10" s="163"/>
+      <c r="H10" s="160"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="117"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="118"/>
+      <c r="B11" s="161"/>
+      <c r="C11" s="160"/>
+      <c r="D11" s="162"/>
       <c r="E11" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="119"/>
-      <c r="H11" s="116"/>
+      <c r="G11" s="163"/>
+      <c r="H11" s="160"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="117"/>
+      <c r="B12" s="161"/>
       <c r="C12" s="14" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>25</v>
@@ -5746,9 +6401,9 @@
       <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="117"/>
+      <c r="B13" s="161"/>
       <c r="C13" s="14" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>26</v>
@@ -5759,11 +6414,11 @@
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="117" t="s">
-        <v>45</v>
+      <c r="B14" s="161" t="s">
+        <v>39</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>27</v>
@@ -5774,9 +6429,9 @@
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="117"/>
+      <c r="B15" s="161"/>
       <c r="C15" s="14" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>28</v>
@@ -5787,12 +6442,12 @@
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="117"/>
+      <c r="B16" s="161"/>
       <c r="C16" s="14" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -5800,12 +6455,12 @@
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="117"/>
+      <c r="B17" s="161"/>
       <c r="C17" s="14" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -5813,12 +6468,12 @@
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="117"/>
+      <c r="B18" s="161"/>
       <c r="C18" s="14" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -5826,14 +6481,14 @@
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="117" t="s">
-        <v>45</v>
+      <c r="B19" s="161" t="s">
+        <v>39</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -5841,12 +6496,12 @@
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="117"/>
+      <c r="B20" s="161"/>
       <c r="C20" s="14" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -5854,12 +6509,12 @@
       <c r="H20" s="10"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="117"/>
+      <c r="B21" s="161"/>
       <c r="C21" s="14" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -5867,12 +6522,12 @@
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="117"/>
+      <c r="B22" s="161"/>
       <c r="C22" s="14" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -6008,15 +6663,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009064D6C488808240A931504663625519" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="11acfd708cfbfedaf6fd6a69bab4f713">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f6f721e1-8a62-40be-993d-f44352021507" xmlns:ns3="5d0b22ea-e5ea-49c7-9b62-902e21e51f08" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1282cdffc664ff3f2e025bb98ea917b4" ns2:_="" ns3:_="">
     <xsd:import namespace="f6f721e1-8a62-40be-993d-f44352021507"/>
@@ -6219,21 +6865,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5836DDC-7C5A-4A10-AADE-992968780C6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68E43F1B-6DB6-4CF2-9BB6-56F8F0513AEE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6252,7 +6899,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6D29AC8-64C8-42E6-B9A9-3FBB4573926C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -6267,4 +6914,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5836DDC-7C5A-4A10-AADE-992968780C6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Test_Case_Template.xlsx
+++ b/Test_Case_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duong Van Tra\OneDrive\Tài liệu\GitHub\Kiem-Thu-phan-mem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4992FE-18C7-4774-998B-C9A3F1365629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E647161-D264-48AE-8938-7FE12B9176A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="801" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1634,9 +1634,6 @@
     <t>Giao diện hiển thị tốt trên nhiều trình duyệt</t>
   </si>
   <si>
-    <t>Website hiển thị giống với các trình duyệt khác</t>
-  </si>
-  <si>
     <t>Website hiển thị đồng nhất ở mọi trình duyệt phổ biến</t>
   </si>
   <si>
@@ -1762,9 +1759,6 @@
     <t>Quản lý ID tài khoản người dùng tốt</t>
   </si>
   <si>
-    <t>ID sản phẩm phải riên lẻ và được sắp xếp tốt</t>
-  </si>
-  <si>
     <t>Người dùng đã có tài khoản chọn "Mua" hoặc "Trả góp" sản phẩm có số lượng bằng 0</t>
   </si>
   <si>
@@ -1817,6 +1811,12 @@
   </si>
   <si>
     <t>Mọi tài khoản được tạo phải khả dụng</t>
+  </si>
+  <si>
+    <t>ID sản phẩm phải riêng lẻ và được sắp xếp tốt</t>
+  </si>
+  <si>
+    <t>Website hiển thị chính xác và đầy đủ các chức năng giống với các trình duyệt khác</t>
   </si>
 </sst>
 </file>
@@ -2139,7 +2139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2332,83 +2332,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -2421,10 +2352,103 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2433,140 +2457,161 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -2577,85 +2622,46 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -2669,12 +2675,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2683,6 +2683,12 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3164,54 +3170,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="92"/>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
+      <c r="A1" s="68"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
     </row>
     <row r="2" spans="1:16" s="3" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
     </row>
     <row r="3" spans="1:16" s="3" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="92"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="96"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
     </row>
     <row r="4" spans="1:16" s="3" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="96"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
     </row>
     <row r="5" spans="1:16" s="3" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="96"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P6"/>
@@ -3222,30 +3228,30 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="94" t="s">
+      <c r="F9" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
     </row>
     <row r="10" spans="1:16" s="5" customFormat="1" ht="23" x14ac:dyDescent="0.5">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="95" t="s">
+      <c r="E10" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="95"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
     </row>
     <row r="11" spans="1:16" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="F11" s="6"/>
@@ -3263,272 +3269,272 @@
     </row>
     <row r="13" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
-      <c r="B13" s="93" t="s">
+      <c r="B13" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="93"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="69"/>
     </row>
     <row r="14" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="80" t="s">
+      <c r="B14" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80" t="s">
+      <c r="C14" s="70"/>
+      <c r="D14" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80" t="s">
+      <c r="E14" s="70"/>
+      <c r="F14" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80" t="s">
+      <c r="G14" s="70"/>
+      <c r="H14" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="80"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="80" t="s">
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="80"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="80" t="s">
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="O14" s="80"/>
-      <c r="P14" s="80"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="70"/>
     </row>
     <row r="15" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="B15" s="97">
         <v>45833</v>
       </c>
       <c r="C15" s="97"/>
-      <c r="D15" s="71" t="s">
+      <c r="D15" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="71"/>
+      <c r="E15" s="94"/>
       <c r="F15" s="74" t="s">
+        <v>199</v>
+      </c>
+      <c r="G15" s="74"/>
+      <c r="H15" s="96" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="96" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="75"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="75"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="75"/>
+    </row>
+    <row r="16" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+      <c r="B16" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
+    </row>
+    <row r="17" spans="2:13" ht="13" x14ac:dyDescent="0.3">
+      <c r="B17" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+    </row>
+    <row r="18" spans="2:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="B18" s="78">
+        <v>45833</v>
+      </c>
+      <c r="C18" s="79"/>
+      <c r="D18" s="94" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="94"/>
+      <c r="F18" s="95" t="s">
         <v>200</v>
       </c>
-      <c r="G15" s="74"/>
-      <c r="H15" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="L15" s="76"/>
-      <c r="M15" s="76"/>
-      <c r="N15" s="76"/>
-      <c r="O15" s="76"/>
-      <c r="P15" s="76"/>
-    </row>
-    <row r="16" spans="1:16" ht="13" x14ac:dyDescent="0.3">
-      <c r="B16" s="89" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="89"/>
-    </row>
-    <row r="17" spans="2:13" ht="13" x14ac:dyDescent="0.3">
-      <c r="B17" s="80" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="80" t="s">
-        <v>8</v>
-      </c>
-      <c r="L17" s="80"/>
-      <c r="M17" s="80"/>
-    </row>
-    <row r="18" spans="2:13" ht="13" x14ac:dyDescent="0.25">
-      <c r="B18" s="84">
-        <v>45833</v>
-      </c>
-      <c r="C18" s="85"/>
-      <c r="D18" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="71"/>
-      <c r="F18" s="72" t="s">
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="96" t="s">
         <v>201</v>
       </c>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="75" t="s">
-        <v>202</v>
-      </c>
-      <c r="L18" s="76"/>
-      <c r="M18" s="76"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="75"/>
     </row>
     <row r="19" spans="2:13" ht="13" x14ac:dyDescent="0.25">
-      <c r="B19" s="84"/>
-      <c r="C19" s="85"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="79"/>
       <c r="D19" s="74"/>
       <c r="E19" s="74"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="88"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="85"/>
     </row>
     <row r="20" spans="2:13" ht="13" x14ac:dyDescent="0.25">
-      <c r="B20" s="84"/>
-      <c r="C20" s="85"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="79"/>
       <c r="D20" s="74"/>
       <c r="E20" s="74"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="87"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="88"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="85"/>
     </row>
     <row r="21" spans="2:13" ht="13" x14ac:dyDescent="0.25">
-      <c r="B21" s="84"/>
-      <c r="C21" s="85"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="79"/>
       <c r="D21" s="74"/>
       <c r="E21" s="74"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="87"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="88"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="83"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="85"/>
     </row>
     <row r="22" spans="2:13" ht="13" x14ac:dyDescent="0.25">
-      <c r="B22" s="84"/>
-      <c r="C22" s="85"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="79"/>
       <c r="D22" s="74"/>
       <c r="E22" s="74"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="88"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="83"/>
+      <c r="L22" s="84"/>
+      <c r="M22" s="85"/>
     </row>
     <row r="23" spans="2:13" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="B23" s="91" t="s">
+      <c r="B23" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="91" t="s">
+      <c r="C23" s="89"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="91"/>
-      <c r="G23" s="91" t="s">
+      <c r="F23" s="89"/>
+      <c r="G23" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="H23" s="91"/>
-      <c r="I23" s="91"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="91"/>
-      <c r="L23" s="91"/>
-      <c r="M23" s="91"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="89"/>
+      <c r="J23" s="89"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="89"/>
+      <c r="M23" s="89"/>
     </row>
     <row r="24" spans="2:13" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="B24" s="81" t="s">
+      <c r="B24" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="81" t="s">
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="J24" s="83"/>
-      <c r="K24" s="81" t="s">
+      <c r="J24" s="82"/>
+      <c r="K24" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="L24" s="82"/>
-      <c r="M24" s="83"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="82"/>
     </row>
     <row r="25" spans="2:13" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.25">
-      <c r="B25" s="77"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="87"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="88"/>
+      <c r="M25" s="87"/>
     </row>
     <row r="26" spans="2:13" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.25">
-      <c r="B26" s="77"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="70"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="87"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="88"/>
+      <c r="M26" s="87"/>
     </row>
     <row r="27" spans="2:13" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.25">
-      <c r="B27" s="86"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="86"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
       <c r="I27" s="74"/>
       <c r="J27" s="74"/>
       <c r="K27" s="74"/>
@@ -3536,87 +3542,87 @@
       <c r="M27" s="74"/>
     </row>
     <row r="28" spans="2:13" ht="13" x14ac:dyDescent="0.3">
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="90"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="90"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="77"/>
     </row>
     <row r="29" spans="2:13" ht="13" x14ac:dyDescent="0.3">
-      <c r="B29" s="80" t="s">
+      <c r="B29" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80" t="s">
+      <c r="C29" s="70"/>
+      <c r="D29" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="80"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80" t="s">
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="H29" s="80"/>
+      <c r="H29" s="70"/>
     </row>
     <row r="30" spans="2:13" ht="13" x14ac:dyDescent="0.25">
-      <c r="B30" s="84"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="88"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="85"/>
       <c r="G30" s="74"/>
       <c r="H30" s="74"/>
     </row>
     <row r="31" spans="2:13" ht="13" x14ac:dyDescent="0.25">
-      <c r="B31" s="84"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="88"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="85"/>
       <c r="G31" s="74"/>
       <c r="H31" s="74"/>
     </row>
     <row r="32" spans="2:13" ht="13" x14ac:dyDescent="0.25">
-      <c r="B32" s="84"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="88"/>
+      <c r="B32" s="78"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="85"/>
       <c r="G32" s="74"/>
       <c r="H32" s="74"/>
     </row>
     <row r="33" spans="2:8" ht="13" x14ac:dyDescent="0.25">
-      <c r="B33" s="84"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="88"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="85"/>
       <c r="G33" s="74"/>
       <c r="H33" s="74"/>
     </row>
     <row r="34" spans="2:8" ht="13" x14ac:dyDescent="0.25">
-      <c r="B34" s="84"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="88"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="85"/>
       <c r="G34" s="74"/>
       <c r="H34" s="74"/>
     </row>
     <row r="35" spans="2:8" ht="13" x14ac:dyDescent="0.25">
-      <c r="B35" s="84"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="88"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="85"/>
       <c r="G35" s="74"/>
       <c r="H35" s="74"/>
     </row>
@@ -3628,16 +3634,57 @@
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="A1:E5"/>
-    <mergeCell ref="B13:P13"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="F9:K9"/>
-    <mergeCell ref="E10:L10"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="N1:P5"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="B23:M23"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="N15:P15"/>
@@ -3654,57 +3701,16 @@
     <mergeCell ref="D29:F29"/>
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="K24:M24"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="B23:M23"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="A1:E5"/>
+    <mergeCell ref="B13:P13"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="F9:K9"/>
+    <mergeCell ref="E10:L10"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="N1:P5"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:J14"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3718,9 +3724,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I43" sqref="I43:I46"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3738,17 +3744,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.5">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="117" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
     </row>
     <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
@@ -3832,35 +3838,35 @@
     </row>
     <row r="7" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="125" t="s">
+      <c r="D7" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="141" t="s">
+      <c r="E7" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="142"/>
-      <c r="G7" s="143"/>
-      <c r="H7" s="125" t="s">
+      <c r="F7" s="121"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="125" t="s">
+      <c r="I7" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="125" t="s">
+      <c r="J7" s="118" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
       <c r="E8" s="17" t="s">
         <v>20</v>
       </c>
@@ -3870,19 +3876,19 @@
       <c r="G8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="126"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="126"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="119"/>
     </row>
     <row r="9" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
-      <c r="B9" s="103" t="s">
+      <c r="B9" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="112" t="s">
+      <c r="C9" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="144" t="s">
+      <c r="D9" s="103" t="s">
         <v>48</v>
       </c>
       <c r="E9" s="19" t="s">
@@ -3894,19 +3900,19 @@
       <c r="G9" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="98" t="s">
+      <c r="H9" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="I9" s="171" t="s">
+      <c r="I9" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="J9" s="127"/>
+      <c r="J9" s="128"/>
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="145"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="104"/>
       <c r="E10" s="21" t="s">
         <v>37</v>
       </c>
@@ -3916,15 +3922,15 @@
       <c r="G10" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="99"/>
-      <c r="I10" s="172"/>
-      <c r="J10" s="124"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="129"/>
     </row>
     <row r="11" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
-      <c r="B11" s="108"/>
-      <c r="C11" s="113"/>
-      <c r="D11" s="145"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="104"/>
       <c r="E11" s="21" t="s">
         <v>38</v>
       </c>
@@ -3934,15 +3940,15 @@
       <c r="G11" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="99"/>
-      <c r="I11" s="172"/>
-      <c r="J11" s="124"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="124"/>
+      <c r="J11" s="129"/>
     </row>
     <row r="12" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="145"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="104"/>
       <c r="E12" s="21" t="s">
         <v>161</v>
       </c>
@@ -3952,15 +3958,15 @@
       <c r="G12" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="H12" s="99"/>
-      <c r="I12" s="172"/>
-      <c r="J12" s="124"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="129"/>
     </row>
     <row r="13" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="145"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="104"/>
       <c r="E13" s="21" t="s">
         <v>42</v>
       </c>
@@ -3970,15 +3976,15 @@
       <c r="G13" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="99"/>
-      <c r="I13" s="172"/>
-      <c r="J13" s="124"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="124"/>
+      <c r="J13" s="129"/>
     </row>
     <row r="14" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="113"/>
-      <c r="D14" s="145"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="104"/>
       <c r="E14" s="21" t="s">
         <v>40</v>
       </c>
@@ -3988,15 +3994,15 @@
       <c r="G14" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="H14" s="99"/>
-      <c r="I14" s="172"/>
-      <c r="J14" s="124"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="124"/>
+      <c r="J14" s="129"/>
     </row>
     <row r="15" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
-      <c r="B15" s="108"/>
-      <c r="C15" s="114"/>
-      <c r="D15" s="146"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="105"/>
       <c r="E15" s="21" t="s">
         <v>43</v>
       </c>
@@ -4006,17 +4012,17 @@
       <c r="G15" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="H15" s="100"/>
-      <c r="I15" s="173"/>
-      <c r="J15" s="124"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="125"/>
+      <c r="J15" s="129"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="112" t="s">
+      <c r="B16" s="99"/>
+      <c r="C16" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="109" t="s">
+      <c r="D16" s="113" t="s">
         <v>49</v>
       </c>
       <c r="E16" s="19" t="s">
@@ -4028,19 +4034,19 @@
       <c r="G16" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H16" s="98" t="s">
+      <c r="H16" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="I16" s="171" t="s">
+      <c r="I16" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="J16" s="124"/>
+      <c r="J16" s="129"/>
     </row>
     <row r="17" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
-      <c r="B17" s="108"/>
-      <c r="C17" s="113"/>
-      <c r="D17" s="110"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="114"/>
       <c r="E17" s="24" t="s">
         <v>42</v>
       </c>
@@ -4050,15 +4056,15 @@
       <c r="G17" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="99"/>
-      <c r="I17" s="172"/>
-      <c r="J17" s="124"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="124"/>
+      <c r="J17" s="129"/>
     </row>
     <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
-      <c r="B18" s="108"/>
-      <c r="C18" s="113"/>
-      <c r="D18" s="110"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="114"/>
       <c r="E18" s="21" t="s">
         <v>40</v>
       </c>
@@ -4068,15 +4074,15 @@
       <c r="G18" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="H18" s="99"/>
-      <c r="I18" s="172"/>
-      <c r="J18" s="124"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="124"/>
+      <c r="J18" s="129"/>
     </row>
     <row r="19" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
-      <c r="B19" s="108"/>
-      <c r="C19" s="114"/>
-      <c r="D19" s="111"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="115"/>
       <c r="E19" s="21" t="s">
         <v>43</v>
       </c>
@@ -4086,13 +4092,13 @@
       <c r="G19" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="H19" s="100"/>
-      <c r="I19" s="173"/>
-      <c r="J19" s="124"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="125"/>
+      <c r="J19" s="129"/>
     </row>
     <row r="20" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
-      <c r="B20" s="108"/>
+      <c r="B20" s="99"/>
       <c r="C20" s="9" t="s">
         <v>50</v>
       </c>
@@ -4117,53 +4123,53 @@
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
-      <c r="B21" s="103" t="s">
+      <c r="B21" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="112" t="s">
+      <c r="C21" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="109" t="s">
+      <c r="D21" s="113" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="98" t="s">
+      <c r="E21" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="98" t="s">
+      <c r="F21" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="G21" s="112" t="s">
+      <c r="G21" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="H21" s="98" t="s">
+      <c r="H21" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="I21" s="138" t="s">
+      <c r="I21" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="J21" s="128" t="s">
+      <c r="J21" s="130" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
-      <c r="B22" s="108"/>
-      <c r="C22" s="114"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="139"/>
-      <c r="J22" s="129"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="127"/>
+      <c r="J22" s="131"/>
     </row>
     <row r="23" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
-      <c r="B23" s="108"/>
-      <c r="C23" s="112" t="s">
+      <c r="B23" s="99"/>
+      <c r="C23" s="100" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="109" t="s">
+      <c r="D23" s="113" t="s">
         <v>62</v>
       </c>
       <c r="E23" s="19" t="s">
@@ -4175,19 +4181,19 @@
       <c r="G23" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H23" s="98" t="s">
+      <c r="H23" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="I23" s="171" t="s">
+      <c r="I23" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="J23" s="124"/>
+      <c r="J23" s="129"/>
     </row>
     <row r="24" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
-      <c r="B24" s="108"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="110"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="114"/>
       <c r="E24" s="21" t="s">
         <v>67</v>
       </c>
@@ -4197,16 +4203,16 @@
       <c r="G24" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="H24" s="99"/>
-      <c r="I24" s="172"/>
-      <c r="J24" s="124"/>
+      <c r="H24" s="107"/>
+      <c r="I24" s="124"/>
+      <c r="J24" s="129"/>
     </row>
     <row r="25" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
-      <c r="B25" s="108"/>
-      <c r="C25" s="113"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="99" t="s">
+      <c r="B25" s="99"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="107" t="s">
         <v>69</v>
       </c>
       <c r="F25" s="22" t="s">
@@ -4215,31 +4221,31 @@
       <c r="G25" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="H25" s="99"/>
-      <c r="I25" s="172"/>
-      <c r="J25" s="124"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="124"/>
+      <c r="J25" s="129"/>
     </row>
     <row r="26" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
-      <c r="B26" s="108"/>
-      <c r="C26" s="113"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="99"/>
+      <c r="B26" s="99"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="107"/>
       <c r="F26" s="22" t="s">
         <v>146</v>
       </c>
       <c r="G26" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="H26" s="99"/>
-      <c r="I26" s="172"/>
-      <c r="J26" s="124"/>
+      <c r="H26" s="107"/>
+      <c r="I26" s="124"/>
+      <c r="J26" s="129"/>
     </row>
     <row r="27" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
-      <c r="B27" s="108"/>
-      <c r="C27" s="114"/>
-      <c r="D27" s="111"/>
+      <c r="B27" s="99"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="115"/>
       <c r="E27" s="21" t="s">
         <v>61</v>
       </c>
@@ -4249,75 +4255,75 @@
       <c r="G27" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="H27" s="100"/>
-      <c r="I27" s="173"/>
-      <c r="J27" s="124"/>
+      <c r="H27" s="108"/>
+      <c r="I27" s="125"/>
+      <c r="J27" s="129"/>
     </row>
     <row r="28" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
-      <c r="B28" s="108"/>
-      <c r="C28" s="112" t="s">
+      <c r="B28" s="99"/>
+      <c r="C28" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="118" t="s">
+      <c r="D28" s="141" t="s">
         <v>72</v>
       </c>
       <c r="E28" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="F28" s="19" t="s">
+      <c r="F28" s="26" t="s">
         <v>73</v>
       </c>
       <c r="G28" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="H28" s="98" t="s">
+      <c r="H28" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="I28" s="171" t="s">
+      <c r="I28" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="J28" s="124"/>
+      <c r="J28" s="129"/>
     </row>
     <row r="29" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
-      <c r="B29" s="108"/>
-      <c r="C29" s="113"/>
-      <c r="D29" s="170"/>
-      <c r="E29" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F29" s="21" t="s">
-        <v>216</v>
+      <c r="B29" s="99"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="142"/>
+      <c r="E29" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>214</v>
       </c>
       <c r="G29" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="H29" s="99"/>
-      <c r="I29" s="172"/>
-      <c r="J29" s="124"/>
+      <c r="H29" s="107"/>
+      <c r="I29" s="124"/>
+      <c r="J29" s="129"/>
     </row>
     <row r="30" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
-      <c r="B30" s="108"/>
-      <c r="C30" s="114"/>
-      <c r="D30" s="119"/>
+      <c r="B30" s="99"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="143"/>
       <c r="E30" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="F30" s="23" t="s">
+      <c r="F30" s="29" t="s">
         <v>147</v>
       </c>
       <c r="G30" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="H30" s="100"/>
-      <c r="I30" s="173"/>
-      <c r="J30" s="124"/>
+      <c r="H30" s="108"/>
+      <c r="I30" s="125"/>
+      <c r="J30" s="129"/>
     </row>
     <row r="31" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
-      <c r="B31" s="104"/>
+      <c r="B31" s="112"/>
       <c r="C31" s="9" t="s">
         <v>104</v>
       </c>
@@ -4342,51 +4348,51 @@
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
-      <c r="B32" s="103" t="s">
+      <c r="B32" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="121" t="s">
+      <c r="C32" s="110" t="s">
         <v>76</v>
       </c>
-      <c r="D32" s="109" t="s">
+      <c r="D32" s="113" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="98" t="s">
+      <c r="E32" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="131" t="s">
+      <c r="F32" s="109" t="s">
         <v>169</v>
       </c>
-      <c r="G32" s="132" t="s">
+      <c r="G32" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="H32" s="131" t="s">
+      <c r="H32" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="I32" s="130" t="s">
+      <c r="I32" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="J32" s="124"/>
+      <c r="J32" s="129"/>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
-      <c r="B33" s="108"/>
-      <c r="C33" s="123"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="100"/>
-      <c r="F33" s="131"/>
-      <c r="G33" s="112"/>
-      <c r="H33" s="131"/>
-      <c r="I33" s="130"/>
-      <c r="J33" s="124"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="115"/>
+      <c r="E33" s="108"/>
+      <c r="F33" s="109"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="109"/>
+      <c r="I33" s="132"/>
+      <c r="J33" s="129"/>
     </row>
     <row r="34" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
-      <c r="B34" s="108"/>
-      <c r="C34" s="121" t="s">
+      <c r="B34" s="99"/>
+      <c r="C34" s="110" t="s">
         <v>77</v>
       </c>
-      <c r="D34" s="109" t="s">
+      <c r="D34" s="113" t="s">
         <v>59</v>
       </c>
       <c r="E34" s="19" t="s">
@@ -4398,19 +4404,19 @@
       <c r="G34" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H34" s="136" t="s">
+      <c r="H34" s="137" t="s">
         <v>95</v>
       </c>
-      <c r="I34" s="116" t="s">
+      <c r="I34" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="J34" s="124"/>
+      <c r="J34" s="129"/>
     </row>
     <row r="35" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
-      <c r="B35" s="108"/>
-      <c r="C35" s="122"/>
-      <c r="D35" s="110"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="114"/>
       <c r="E35" s="21" t="s">
         <v>79</v>
       </c>
@@ -4420,15 +4426,15 @@
       <c r="G35" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="H35" s="136"/>
-      <c r="I35" s="116"/>
-      <c r="J35" s="124"/>
+      <c r="H35" s="137"/>
+      <c r="I35" s="139"/>
+      <c r="J35" s="129"/>
     </row>
     <row r="36" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
-      <c r="B36" s="108"/>
-      <c r="C36" s="123"/>
-      <c r="D36" s="111"/>
+      <c r="B36" s="99"/>
+      <c r="C36" s="111"/>
+      <c r="D36" s="115"/>
       <c r="E36" s="23" t="s">
         <v>81</v>
       </c>
@@ -4438,17 +4444,17 @@
       <c r="G36" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="H36" s="137"/>
-      <c r="I36" s="117"/>
-      <c r="J36" s="124"/>
+      <c r="H36" s="138"/>
+      <c r="I36" s="140"/>
+      <c r="J36" s="129"/>
     </row>
     <row r="37" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
-      <c r="B37" s="108"/>
-      <c r="C37" s="121" t="s">
+      <c r="B37" s="99"/>
+      <c r="C37" s="110" t="s">
         <v>83</v>
       </c>
-      <c r="D37" s="109" t="s">
+      <c r="D37" s="113" t="s">
         <v>84</v>
       </c>
       <c r="E37" s="21" t="s">
@@ -4460,19 +4466,19 @@
       <c r="G37" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H37" s="98" t="s">
+      <c r="H37" s="106" t="s">
         <v>90</v>
       </c>
-      <c r="I37" s="133" t="s">
+      <c r="I37" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="J37" s="124"/>
+      <c r="J37" s="129"/>
     </row>
     <row r="38" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
-      <c r="B38" s="108"/>
-      <c r="C38" s="122"/>
-      <c r="D38" s="110"/>
+      <c r="B38" s="99"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="114"/>
       <c r="E38" s="21" t="s">
         <v>87</v>
       </c>
@@ -4482,15 +4488,15 @@
       <c r="G38" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H38" s="99"/>
-      <c r="I38" s="134"/>
-      <c r="J38" s="124"/>
+      <c r="H38" s="107"/>
+      <c r="I38" s="135"/>
+      <c r="J38" s="129"/>
     </row>
     <row r="39" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
-      <c r="B39" s="108"/>
-      <c r="C39" s="123"/>
-      <c r="D39" s="111"/>
+      <c r="B39" s="99"/>
+      <c r="C39" s="111"/>
+      <c r="D39" s="115"/>
       <c r="E39" s="23" t="s">
         <v>86</v>
       </c>
@@ -4500,13 +4506,13 @@
       <c r="G39" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H39" s="100"/>
-      <c r="I39" s="135"/>
-      <c r="J39" s="124"/>
+      <c r="H39" s="108"/>
+      <c r="I39" s="136"/>
+      <c r="J39" s="129"/>
     </row>
     <row r="40" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
-      <c r="B40" s="104"/>
+      <c r="B40" s="112"/>
       <c r="C40" s="34" t="s">
         <v>91</v>
       </c>
@@ -4531,13 +4537,13 @@
     </row>
     <row r="41" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
-      <c r="B41" s="103" t="s">
+      <c r="B41" s="98" t="s">
         <v>119</v>
       </c>
-      <c r="C41" s="98" t="s">
+      <c r="C41" s="106" t="s">
         <v>150</v>
       </c>
-      <c r="D41" s="98" t="s">
+      <c r="D41" s="106" t="s">
         <v>153</v>
       </c>
       <c r="E41" s="19" t="s">
@@ -4549,18 +4555,18 @@
       <c r="G41" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H41" s="98" t="s">
+      <c r="H41" s="106" t="s">
         <v>155</v>
       </c>
-      <c r="I41" s="101" t="s">
+      <c r="I41" s="151" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
-      <c r="B42" s="104"/>
-      <c r="C42" s="100"/>
-      <c r="D42" s="100"/>
+      <c r="B42" s="112"/>
+      <c r="C42" s="108"/>
+      <c r="D42" s="108"/>
       <c r="E42" s="21" t="s">
         <v>152</v>
       </c>
@@ -4570,18 +4576,18 @@
       <c r="G42" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="H42" s="120"/>
-      <c r="I42" s="102"/>
+      <c r="H42" s="150"/>
+      <c r="I42" s="152"/>
     </row>
     <row r="43" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
-      <c r="B43" s="103" t="s">
+      <c r="B43" s="98" t="s">
         <v>119</v>
       </c>
-      <c r="C43" s="105" t="s">
+      <c r="C43" s="147" t="s">
         <v>156</v>
       </c>
-      <c r="D43" s="98" t="s">
+      <c r="D43" s="106" t="s">
         <v>157</v>
       </c>
       <c r="E43" s="19" t="s">
@@ -4593,18 +4599,18 @@
       <c r="G43" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H43" s="98" t="s">
+      <c r="H43" s="106" t="s">
         <v>165</v>
       </c>
-      <c r="I43" s="174" t="s">
+      <c r="I43" s="144" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
-      <c r="B44" s="108"/>
-      <c r="C44" s="106"/>
-      <c r="D44" s="99"/>
+      <c r="B44" s="99"/>
+      <c r="C44" s="148"/>
+      <c r="D44" s="107"/>
       <c r="E44" s="21" t="s">
         <v>159</v>
       </c>
@@ -4614,14 +4620,14 @@
       <c r="G44" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="H44" s="99"/>
-      <c r="I44" s="175"/>
+      <c r="H44" s="107"/>
+      <c r="I44" s="145"/>
     </row>
     <row r="45" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
-      <c r="B45" s="108"/>
-      <c r="C45" s="106"/>
-      <c r="D45" s="99"/>
+      <c r="B45" s="99"/>
+      <c r="C45" s="148"/>
+      <c r="D45" s="107"/>
       <c r="E45" s="21" t="s">
         <v>160</v>
       </c>
@@ -4631,13 +4637,13 @@
       <c r="G45" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="H45" s="99"/>
-      <c r="I45" s="175"/>
+      <c r="H45" s="107"/>
+      <c r="I45" s="145"/>
     </row>
     <row r="46" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="104"/>
-      <c r="C46" s="107"/>
-      <c r="D46" s="100"/>
+      <c r="B46" s="112"/>
+      <c r="C46" s="149"/>
+      <c r="D46" s="108"/>
       <c r="E46" s="23" t="s">
         <v>163</v>
       </c>
@@ -4647,8 +4653,8 @@
       <c r="G46" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="H46" s="100"/>
-      <c r="I46" s="176"/>
+      <c r="H46" s="108"/>
+      <c r="I46" s="146"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B47" s="58"/>
@@ -4752,6 +4758,58 @@
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="I43:I46"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="H23:H27"/>
+    <mergeCell ref="I23:I27"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="J23:J27"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="J34:J36"/>
+    <mergeCell ref="J37:J39"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="H37:H39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="I34:I36"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J9:J15"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="I9:I15"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B20"/>
     <mergeCell ref="C9:C15"/>
     <mergeCell ref="D9:D15"/>
@@ -4768,58 +4826,6 @@
     <mergeCell ref="C34:C36"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="I16:I19"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J9:J15"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="I9:I15"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="J23:J27"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="J34:J36"/>
-    <mergeCell ref="J37:J39"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="H37:H39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="I34:I36"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="H23:H27"/>
-    <mergeCell ref="I23:I27"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="H43:H46"/>
-    <mergeCell ref="I43:I46"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="C41:C42"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -4839,7 +4845,7 @@
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:E20"/>
+      <selection activeCell="E15" sqref="E15:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4856,17 +4862,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.5">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
     </row>
     <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
@@ -4896,7 +4902,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="35">
-        <f>COUNTIF($I$12:$I$2016, "Failed")</f>
+        <f>COUNTIF($I$9:$I$2016, "Failed")</f>
         <v>4</v>
       </c>
     </row>
@@ -4912,7 +4918,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="35">
-        <f>COUNTIF($I$12:$I$2016, "Not Run")</f>
+        <f>COUNTIF($I$9:$I$2016, "Not Run")</f>
         <v>0</v>
       </c>
     </row>
@@ -4928,7 +4934,7 @@
         <v>4</v>
       </c>
       <c r="I5" s="35">
-        <f>COUNTIF($I$12:$I$2016, "Not Completed")</f>
+        <f>COUNTIF($I$9:$I$2016, "Not Completed")</f>
         <v>0</v>
       </c>
     </row>
@@ -4944,41 +4950,41 @@
         <v>29</v>
       </c>
       <c r="I6" s="35">
-        <f>COUNTA(C11:C2015)</f>
-        <v>6</v>
+        <f>COUNTA(C9:C2015)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="125" t="s">
+      <c r="D7" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="141" t="s">
+      <c r="E7" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="142"/>
-      <c r="G7" s="143"/>
-      <c r="H7" s="125" t="s">
+      <c r="F7" s="121"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="125" t="s">
+      <c r="I7" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="125" t="s">
+      <c r="J7" s="118" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
-      <c r="B8" s="154"/>
-      <c r="C8" s="154"/>
-      <c r="D8" s="154"/>
+      <c r="B8" s="159"/>
+      <c r="C8" s="159"/>
+      <c r="D8" s="159"/>
       <c r="E8" s="17" t="s">
         <v>20</v>
       </c>
@@ -4988,19 +4994,19 @@
       <c r="G8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="154"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="154"/>
+      <c r="H8" s="159"/>
+      <c r="I8" s="159"/>
+      <c r="J8" s="159"/>
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
-      <c r="B9" s="103" t="s">
+      <c r="B9" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="161" t="s">
+      <c r="C9" s="157" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="160" t="s">
+      <c r="D9" s="155" t="s">
         <v>109</v>
       </c>
       <c r="E9" s="19" t="s">
@@ -5012,19 +5018,19 @@
       <c r="G9" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="H9" s="150" t="s">
+      <c r="H9" s="156" t="s">
         <v>110</v>
       </c>
-      <c r="I9" s="115" t="s">
+      <c r="I9" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="J9" s="124"/>
+      <c r="J9" s="129"/>
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="162"/>
-      <c r="D10" s="150"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="158"/>
+      <c r="D10" s="156"/>
       <c r="E10" s="21" t="s">
         <v>138</v>
       </c>
@@ -5034,13 +5040,13 @@
       <c r="G10" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="151"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="124"/>
+      <c r="H10" s="160"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="129"/>
     </row>
     <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
-      <c r="B11" s="104"/>
+      <c r="B11" s="112"/>
       <c r="C11" s="34" t="s">
         <v>103</v>
       </c>
@@ -5092,13 +5098,13 @@
     </row>
     <row r="13" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
-      <c r="B13" s="148" t="s">
+      <c r="B13" s="163" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="152" t="s">
+      <c r="C13" s="165" t="s">
         <v>121</v>
       </c>
-      <c r="D13" s="157" t="s">
+      <c r="D13" s="167" t="s">
         <v>99</v>
       </c>
       <c r="E13" s="19" t="s">
@@ -5110,19 +5116,19 @@
       <c r="G13" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="105" t="s">
+      <c r="H13" s="147" t="s">
         <v>116</v>
       </c>
-      <c r="I13" s="158" t="s">
+      <c r="I13" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="124"/>
+      <c r="J13" s="129"/>
     </row>
     <row r="14" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
-      <c r="B14" s="148"/>
-      <c r="C14" s="153"/>
-      <c r="D14" s="157"/>
+      <c r="B14" s="163"/>
+      <c r="C14" s="166"/>
+      <c r="D14" s="167"/>
       <c r="E14" s="23" t="s">
         <v>101</v>
       </c>
@@ -5132,19 +5138,19 @@
       <c r="G14" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="H14" s="107"/>
-      <c r="I14" s="159"/>
-      <c r="J14" s="124"/>
+      <c r="H14" s="149"/>
+      <c r="I14" s="154"/>
+      <c r="J14" s="129"/>
     </row>
     <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
-      <c r="B15" s="149" t="s">
+      <c r="B15" s="164" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="121" t="s">
+      <c r="C15" s="110" t="s">
         <v>128</v>
       </c>
-      <c r="D15" s="147" t="s">
+      <c r="D15" s="162" t="s">
         <v>122</v>
       </c>
       <c r="E15" s="21" t="s">
@@ -5156,21 +5162,21 @@
       <c r="G15" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H15" s="150" t="s">
+      <c r="H15" s="156" t="s">
         <v>127</v>
       </c>
-      <c r="I15" s="138" t="s">
+      <c r="I15" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="J15" s="128" t="s">
+      <c r="J15" s="130" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
-      <c r="B16" s="149"/>
-      <c r="C16" s="123"/>
-      <c r="D16" s="147"/>
+      <c r="B16" s="164"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="162"/>
       <c r="E16" s="23" t="s">
         <v>124</v>
       </c>
@@ -5180,91 +5186,91 @@
       <c r="G16" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="H16" s="151"/>
-      <c r="I16" s="139"/>
-      <c r="J16" s="129"/>
+      <c r="H16" s="160"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="131"/>
     </row>
     <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
-      <c r="B17" s="103" t="s">
+      <c r="B17" s="98" t="s">
+        <v>210</v>
+      </c>
+      <c r="C17" s="110" t="s">
+        <v>208</v>
+      </c>
+      <c r="D17" s="106" t="s">
         <v>211</v>
       </c>
-      <c r="C17" s="121" t="s">
-        <v>209</v>
-      </c>
-      <c r="D17" s="98" t="s">
-        <v>212</v>
-      </c>
-      <c r="E17" s="98" t="s">
+      <c r="E17" s="106" t="s">
+        <v>202</v>
+      </c>
+      <c r="F17" s="22" t="s">
         <v>203</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>204</v>
       </c>
       <c r="G17" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="98" t="s">
-        <v>214</v>
-      </c>
-      <c r="I17" s="158" t="s">
+      <c r="H17" s="106" t="s">
+        <v>231</v>
+      </c>
+      <c r="I17" s="153" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
-      <c r="B18" s="108"/>
-      <c r="C18" s="123"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
       <c r="F18" s="22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G18" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="100"/>
-      <c r="I18" s="159"/>
+      <c r="H18" s="108"/>
+      <c r="I18" s="154"/>
     </row>
     <row r="19" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
-      <c r="B19" s="108"/>
-      <c r="C19" s="121" t="s">
-        <v>210</v>
-      </c>
-      <c r="D19" s="98" t="s">
-        <v>213</v>
-      </c>
-      <c r="E19" s="98" t="s">
+      <c r="B19" s="99"/>
+      <c r="C19" s="110" t="s">
+        <v>209</v>
+      </c>
+      <c r="D19" s="106" t="s">
+        <v>212</v>
+      </c>
+      <c r="E19" s="106" t="s">
+        <v>205</v>
+      </c>
+      <c r="F19" s="20" t="s">
         <v>206</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>207</v>
       </c>
       <c r="G19" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="H19" s="98" t="s">
-        <v>214</v>
-      </c>
-      <c r="I19" s="158" t="s">
+      <c r="H19" s="106" t="s">
+        <v>231</v>
+      </c>
+      <c r="I19" s="153" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
-      <c r="B20" s="104"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
+      <c r="B20" s="112"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="108"/>
       <c r="F20" s="41" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G20" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="100"/>
-      <c r="I20" s="159"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="154"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
@@ -5565,6 +5571,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="I19:I20"/>
@@ -5579,29 +5606,8 @@
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I15 I23:I24 I26 I29 I17 I32:I48 I19 I9 I11:I13" xr:uid="{2EEFFE48-0949-4D00-ABE5-F13E31C6E209}">
@@ -5618,7 +5624,7 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="H7" sqref="H7:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5635,17 +5641,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.5">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="117" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
     </row>
     <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
@@ -5659,8 +5665,8 @@
         <v>1</v>
       </c>
       <c r="I2" s="35">
-        <f>COUNTIF($I$13:$I$2017, "Passed")</f>
-        <v>1</v>
+        <f>COUNTIF($I$9:$I$2017, "Passed")</f>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="13" x14ac:dyDescent="0.3">
@@ -5675,7 +5681,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="35">
-        <f>COUNTIF($I$13:$I$2017, "Failed")</f>
+        <f>COUNTIF($I$9:$I$2017, "Failed")</f>
         <v>1</v>
       </c>
     </row>
@@ -5691,7 +5697,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="35">
-        <f>COUNTIF($I$13:$I$2017, "Not Run")</f>
+        <f>COUNTIF($I$9:$I$2017, "Not Run")</f>
         <v>0</v>
       </c>
     </row>
@@ -5707,7 +5713,7 @@
         <v>4</v>
       </c>
       <c r="I5" s="35">
-        <f>COUNTIF($I$13:$I$2017, "Not Completed")</f>
+        <f>COUNTIF($I$9:$I$2017, "Not Completed")</f>
         <v>0</v>
       </c>
     </row>
@@ -5723,41 +5729,41 @@
         <v>29</v>
       </c>
       <c r="I6" s="35">
-        <f>COUNTA(C12:C2016)</f>
-        <v>3</v>
+        <f>COUNTA(C9:C2016)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="125" t="s">
+      <c r="D7" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="141" t="s">
+      <c r="E7" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="142"/>
-      <c r="G7" s="143"/>
-      <c r="H7" s="125" t="s">
+      <c r="F7" s="121"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="125" t="s">
+      <c r="I7" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="125" t="s">
+      <c r="J7" s="118" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
-      <c r="B8" s="154"/>
-      <c r="C8" s="154"/>
-      <c r="D8" s="154"/>
+      <c r="B8" s="159"/>
+      <c r="C8" s="159"/>
+      <c r="D8" s="159"/>
       <c r="E8" s="17" t="s">
         <v>20</v>
       </c>
@@ -5767,94 +5773,94 @@
       <c r="G8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="154"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="154"/>
+      <c r="H8" s="159"/>
+      <c r="I8" s="159"/>
+      <c r="J8" s="159"/>
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
-      <c r="B9" s="112" t="s">
-        <v>199</v>
-      </c>
-      <c r="C9" s="161" t="s">
-        <v>195</v>
-      </c>
-      <c r="D9" s="131" t="s">
+      <c r="B9" s="179" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" s="157" t="s">
+        <v>194</v>
+      </c>
+      <c r="D9" s="109" t="s">
         <v>171</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="F9" s="53" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>232</v>
       </c>
       <c r="G9" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="H9" s="150" t="s">
-        <v>173</v>
-      </c>
-      <c r="I9" s="155" t="s">
+      <c r="H9" s="156" t="s">
+        <v>172</v>
+      </c>
+      <c r="I9" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="J9" s="124"/>
+      <c r="J9" s="129"/>
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
-      <c r="B10" s="113"/>
-      <c r="C10" s="162"/>
-      <c r="D10" s="98"/>
+      <c r="B10" s="181"/>
+      <c r="C10" s="158"/>
+      <c r="D10" s="106"/>
       <c r="E10" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="F10" s="53" t="s">
-        <v>172</v>
+        <v>174</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>232</v>
       </c>
       <c r="G10" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="165"/>
-      <c r="I10" s="166"/>
-      <c r="J10" s="124"/>
+      <c r="H10" s="172"/>
+      <c r="I10" s="174"/>
+      <c r="J10" s="129"/>
     </row>
     <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
-      <c r="B11" s="113"/>
-      <c r="C11" s="162"/>
-      <c r="D11" s="164"/>
+      <c r="B11" s="181"/>
+      <c r="C11" s="158"/>
+      <c r="D11" s="171"/>
       <c r="E11" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="F11" s="53" t="s">
-        <v>172</v>
+        <v>175</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>232</v>
       </c>
       <c r="G11" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="151"/>
-      <c r="I11" s="156"/>
-      <c r="J11" s="124"/>
+      <c r="H11" s="160"/>
+      <c r="I11" s="175"/>
+      <c r="J11" s="129"/>
     </row>
     <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
-      <c r="B12" s="114"/>
+      <c r="B12" s="180"/>
       <c r="C12" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="D12" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E12" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="F12" s="19" t="s">
         <v>178</v>
-      </c>
-      <c r="F12" s="53" t="s">
-        <v>179</v>
       </c>
       <c r="G12" s="66" t="s">
         <v>1</v>
       </c>
       <c r="H12" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I12" s="56" t="s">
         <v>1</v>
@@ -5862,111 +5868,111 @@
     </row>
     <row r="13" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
-      <c r="B13" s="112" t="s">
+      <c r="B13" s="179" t="s">
+        <v>180</v>
+      </c>
+      <c r="C13" s="186" t="s">
+        <v>196</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="E13" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="C13" s="112" t="s">
-        <v>197</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="E13" s="19" t="s">
+      <c r="F13" s="59" t="s">
         <v>182</v>
-      </c>
-      <c r="F13" s="59" t="s">
-        <v>183</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="163" t="s">
-        <v>184</v>
-      </c>
-      <c r="I13" s="112" t="s">
+      <c r="H13" s="176" t="s">
+        <v>183</v>
+      </c>
+      <c r="I13" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="124"/>
+      <c r="J13" s="129"/>
     </row>
     <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
-      <c r="B14" s="114"/>
-      <c r="C14" s="114"/>
+      <c r="B14" s="180"/>
+      <c r="C14" s="187"/>
       <c r="D14" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="E14" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="E14" s="23" t="s">
-        <v>187</v>
-      </c>
       <c r="F14" s="60" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G14" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="H14" s="137"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="124"/>
+      <c r="H14" s="138"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="129"/>
     </row>
     <row r="15" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
-      <c r="B15" s="132" t="s">
-        <v>194</v>
-      </c>
-      <c r="C15" s="121" t="s">
-        <v>198</v>
-      </c>
-      <c r="D15" s="131" t="s">
+      <c r="B15" s="164" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" s="110" t="s">
+        <v>197</v>
+      </c>
+      <c r="D15" s="108" t="s">
+        <v>187</v>
+      </c>
+      <c r="E15" s="106" t="s">
         <v>188</v>
       </c>
-      <c r="E15" s="98" t="s">
+      <c r="F15" s="59" t="s">
         <v>189</v>
-      </c>
-      <c r="F15" s="59" t="s">
-        <v>190</v>
       </c>
       <c r="G15" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="H15" s="168" t="s">
-        <v>193</v>
-      </c>
-      <c r="I15" s="171" t="s">
+      <c r="H15" s="169" t="s">
+        <v>192</v>
+      </c>
+      <c r="I15" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="J15" s="128"/>
+      <c r="J15" s="130"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
-      <c r="B16" s="132"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="99"/>
+      <c r="B16" s="164"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="107"/>
       <c r="F16" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G16" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="H16" s="168"/>
-      <c r="I16" s="172"/>
-      <c r="J16" s="128"/>
+      <c r="H16" s="169"/>
+      <c r="I16" s="124"/>
+      <c r="J16" s="130"/>
     </row>
     <row r="17" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
-      <c r="B17" s="132"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="167"/>
-      <c r="E17" s="100"/>
+      <c r="B17" s="164"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="168"/>
+      <c r="E17" s="108"/>
       <c r="F17" s="60" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G17" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="169"/>
-      <c r="I17" s="173"/>
-      <c r="J17" s="129"/>
+      <c r="H17" s="170"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="131"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
@@ -6311,6 +6317,20 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:J11"/>
     <mergeCell ref="J15:J17"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="B15:B17"/>
@@ -6318,20 +6338,6 @@
     <mergeCell ref="D15:D17"/>
     <mergeCell ref="H15:H17"/>
     <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="H13:H14"/>
@@ -6353,7 +6359,7 @@
   <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -6370,17 +6376,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.5">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="117" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
     </row>
     <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
@@ -6394,8 +6400,8 @@
         <v>1</v>
       </c>
       <c r="I2" s="35">
-        <f>COUNTIF($I$14:$I$2018, "Passed")</f>
-        <v>0</v>
+        <f>COUNTIF($I$9:$I$2018, "Passed")</f>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="13" x14ac:dyDescent="0.3">
@@ -6410,8 +6416,8 @@
         <v>2</v>
       </c>
       <c r="I3" s="35">
-        <f>COUNTIF($I$14:$I$2018, "Failed")</f>
-        <v>0</v>
+        <f>COUNTIF($I$9:$I$2018, "Failed")</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="13" x14ac:dyDescent="0.3">
@@ -6426,7 +6432,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="35">
-        <f>COUNTIF($I$14:$I$2018, "Not Run")</f>
+        <f>COUNTIF($I$9:$I$2018, "Not Run")</f>
         <v>0</v>
       </c>
     </row>
@@ -6442,7 +6448,7 @@
         <v>4</v>
       </c>
       <c r="I5" s="35">
-        <f>COUNTIF($I$14:$I$2018, "Not Completed")</f>
+        <f>COUNTIF($I$9:$I$2018, "Not Completed")</f>
         <v>0</v>
       </c>
     </row>
@@ -6458,41 +6464,41 @@
         <v>29</v>
       </c>
       <c r="I6" s="35">
-        <f>COUNTA(C12:C2017)</f>
-        <v>1</v>
+        <f>COUNTA(I9:I2025)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="125" t="s">
+      <c r="D7" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="141" t="s">
+      <c r="E7" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="142"/>
-      <c r="G7" s="143"/>
-      <c r="H7" s="125" t="s">
+      <c r="F7" s="121"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="125" t="s">
+      <c r="I7" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="125" t="s">
+      <c r="J7" s="118" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
-      <c r="B8" s="154"/>
-      <c r="C8" s="154"/>
-      <c r="D8" s="154"/>
+      <c r="B8" s="159"/>
+      <c r="C8" s="159"/>
+      <c r="D8" s="159"/>
       <c r="E8" s="17" t="s">
         <v>20</v>
       </c>
@@ -6502,117 +6508,117 @@
       <c r="G8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="154"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="154"/>
+      <c r="H8" s="159"/>
+      <c r="I8" s="159"/>
+      <c r="J8" s="159"/>
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
-      <c r="B9" s="177" t="s">
-        <v>221</v>
-      </c>
-      <c r="C9" s="121" t="s">
+      <c r="B9" s="179" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" s="110" t="s">
+        <v>215</v>
+      </c>
+      <c r="D9" s="106" t="s">
         <v>217</v>
       </c>
-      <c r="D9" s="98" t="s">
-        <v>219</v>
-      </c>
       <c r="E9" s="19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G9" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="H9" s="164" t="s">
-        <v>230</v>
+      <c r="H9" s="171" t="s">
+        <v>228</v>
       </c>
       <c r="I9" s="183" t="s">
         <v>2</v>
       </c>
-      <c r="J9" s="124"/>
+      <c r="J9" s="129"/>
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
-      <c r="B10" s="179"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="99"/>
+      <c r="B10" s="181"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="107"/>
       <c r="E10" s="19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="180"/>
+      <c r="H10" s="182"/>
       <c r="I10" s="184"/>
-      <c r="J10" s="124"/>
+      <c r="J10" s="129"/>
     </row>
     <row r="11" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
-      <c r="B11" s="178"/>
-      <c r="C11" s="123"/>
-      <c r="D11" s="100"/>
+      <c r="B11" s="180"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="108"/>
       <c r="E11" s="19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F11" s="53" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="120"/>
+      <c r="H11" s="150"/>
       <c r="I11" s="185"/>
-      <c r="J11" s="124"/>
+      <c r="J11" s="129"/>
     </row>
     <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
-      <c r="B12" s="177" t="s">
+      <c r="B12" s="179" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="112" t="s">
+      <c r="C12" s="100" t="s">
+        <v>224</v>
+      </c>
+      <c r="D12" s="106" t="s">
+        <v>225</v>
+      </c>
+      <c r="E12" s="59" t="s">
         <v>226</v>
       </c>
-      <c r="D12" s="98" t="s">
-        <v>227</v>
-      </c>
-      <c r="E12" s="59" t="s">
-        <v>228</v>
-      </c>
       <c r="F12" s="59" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G12" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="H12" s="181" t="s">
-        <v>232</v>
-      </c>
-      <c r="I12" s="155" t="s">
+      <c r="H12" s="177" t="s">
+        <v>230</v>
+      </c>
+      <c r="I12" s="173" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
-      <c r="B13" s="178"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="100"/>
+      <c r="B13" s="180"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="108"/>
       <c r="E13" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="F13" s="60" t="s">
         <v>229</v>
-      </c>
-      <c r="F13" s="60" t="s">
-        <v>231</v>
       </c>
       <c r="G13" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="H13" s="182"/>
-      <c r="I13" s="156"/>
+      <c r="H13" s="178"/>
+      <c r="I13" s="175"/>
     </row>
     <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
@@ -6624,7 +6630,7 @@
       <c r="G14" s="36"/>
       <c r="H14" s="22"/>
       <c r="I14" s="43"/>
-      <c r="J14" s="124"/>
+      <c r="J14" s="129"/>
     </row>
     <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
@@ -6636,7 +6642,7 @@
       <c r="G15" s="36"/>
       <c r="H15" s="22"/>
       <c r="I15" s="43"/>
-      <c r="J15" s="124"/>
+      <c r="J15" s="129"/>
     </row>
     <row r="16" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
@@ -6648,7 +6654,7 @@
       <c r="G16" s="36"/>
       <c r="H16" s="22"/>
       <c r="I16" s="43"/>
-      <c r="J16" s="128"/>
+      <c r="J16" s="130"/>
     </row>
     <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
@@ -6660,7 +6666,7 @@
       <c r="G17" s="36"/>
       <c r="H17" s="22"/>
       <c r="I17" s="43"/>
-      <c r="J17" s="128"/>
+      <c r="J17" s="130"/>
     </row>
     <row r="18" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
@@ -6672,7 +6678,7 @@
       <c r="G18" s="36"/>
       <c r="H18" s="22"/>
       <c r="I18" s="43"/>
-      <c r="J18" s="129"/>
+      <c r="J18" s="131"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
@@ -7017,11 +7023,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
     <mergeCell ref="J16:J18"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="J14:J15"/>
@@ -7031,13 +7039,11 @@
     <mergeCell ref="H9:H11"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="J9:J11"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I34:I50 I21 I25:I26 I28 I31 I19 I15" xr:uid="{10709227-BD79-4859-8427-97CB9B5769EB}">
@@ -7050,18 +7056,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7268,14 +7274,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5836DDC-7C5A-4A10-AADE-992968780C6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6D29AC8-64C8-42E6-B9A9-3FBB4573926C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -7288,6 +7286,14 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="5d0b22ea-e5ea-49c7-9b62-902e21e51f08"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5836DDC-7C5A-4A10-AADE-992968780C6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Test_Case_Template.xlsx
+++ b/Test_Case_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duong Van Tra\OneDrive\Tài liệu\GitHub\Kiem-Thu-phan-mem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E647161-D264-48AE-8938-7FE12B9176A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C0B144-E7CC-433D-A551-4FCEC89A0929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="801" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1116,7 +1116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="234">
   <si>
     <t>Description</t>
   </si>
@@ -1277,9 +1277,6 @@
     <t>Nhấn vào nút đăng xuất</t>
   </si>
   <si>
-    <t>Các chỉ mục trên header</t>
-  </si>
-  <si>
     <t>FUNC 2.1</t>
   </si>
   <si>
@@ -1695,10 +1692,6 @@
   </si>
   <si>
     <t>Hiển thị danh sách các sản phẩm đề xuất phù hợp với người dùng</t>
-  </si>
-  <si>
-    <t>Hiển thị 
-sản phẩm</t>
   </si>
   <si>
     <t>UIT 1</t>
@@ -1817,6 +1810,16 @@
   </si>
   <si>
     <t>Website hiển thị chính xác và đầy đủ các chức năng giống với các trình duyệt khác</t>
+  </si>
+  <si>
+    <t>Điều hướng và tiện ích</t>
+  </si>
+  <si>
+    <t>Quản lý tài khoản</t>
+  </si>
+  <si>
+    <t>Hiển thị 
+sản phẩm đề xuất</t>
   </si>
 </sst>
 </file>
@@ -2139,7 +2142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2603,6 +2606,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -2612,12 +2618,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2639,6 +2639,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -2654,41 +2672,23 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3326,7 +3326,7 @@
       </c>
       <c r="E15" s="94"/>
       <c r="F15" s="74" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G15" s="74"/>
       <c r="H15" s="96" t="s">
@@ -3391,14 +3391,14 @@
       </c>
       <c r="E18" s="94"/>
       <c r="F18" s="95" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G18" s="84"/>
       <c r="H18" s="84"/>
       <c r="I18" s="84"/>
       <c r="J18" s="84"/>
       <c r="K18" s="96" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L18" s="75"/>
       <c r="M18" s="75"/>
@@ -3724,9 +3724,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="J9:J15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3859,7 +3859,7 @@
         <v>9</v>
       </c>
       <c r="J7" s="118" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="13" x14ac:dyDescent="0.25">
@@ -3895,7 +3895,7 @@
         <v>36</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G9" s="32" t="s">
         <v>2</v>
@@ -3917,7 +3917,7 @@
         <v>37</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G10" s="32" t="s">
         <v>1</v>
@@ -3950,10 +3950,10 @@
       <c r="C12" s="101"/>
       <c r="D12" s="104"/>
       <c r="E12" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="F12" s="22" t="s">
         <v>161</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>162</v>
       </c>
       <c r="G12" s="32" t="s">
         <v>2</v>
@@ -3971,7 +3971,7 @@
         <v>42</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G13" s="32" t="s">
         <v>2</v>
@@ -4007,7 +4007,7 @@
         <v>43</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G15" s="32" t="s">
         <v>1</v>
@@ -4029,7 +4029,7 @@
         <v>37</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>1</v>
@@ -4051,7 +4051,7 @@
         <v>42</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G17" s="32" t="s">
         <v>2</v>
@@ -4087,7 +4087,7 @@
         <v>43</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G19" s="33" t="s">
         <v>1</v>
@@ -4109,13 +4109,13 @@
         <v>52</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G20" s="45" t="s">
         <v>1</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I20" s="55" t="s">
         <v>1</v>
@@ -4124,31 +4124,31 @@
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="98" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" s="100" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" s="113" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="106" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="106" t="s">
-        <v>61</v>
-      </c>
       <c r="F21" s="106" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G21" s="100" t="s">
         <v>2</v>
       </c>
       <c r="H21" s="106" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I21" s="126" t="s">
         <v>2</v>
       </c>
       <c r="J21" s="130" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -4167,22 +4167,22 @@
       <c r="A23" s="13"/>
       <c r="B23" s="99"/>
       <c r="C23" s="100" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D23" s="113" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="20" t="s">
         <v>62</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>63</v>
       </c>
       <c r="G23" s="9" t="s">
         <v>1</v>
       </c>
       <c r="H23" s="106" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I23" s="123" t="s">
         <v>1</v>
@@ -4195,10 +4195,10 @@
       <c r="C24" s="101"/>
       <c r="D24" s="114"/>
       <c r="E24" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="22" t="s">
         <v>67</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>68</v>
       </c>
       <c r="G24" s="32" t="s">
         <v>1</v>
@@ -4213,10 +4213,10 @@
       <c r="C25" s="101"/>
       <c r="D25" s="114"/>
       <c r="E25" s="107" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G25" s="32" t="s">
         <v>1</v>
@@ -4232,7 +4232,7 @@
       <c r="D26" s="114"/>
       <c r="E26" s="107"/>
       <c r="F26" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G26" s="32" t="s">
         <v>4</v>
@@ -4247,10 +4247,10 @@
       <c r="C27" s="102"/>
       <c r="D27" s="115"/>
       <c r="E27" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F27" s="44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G27" s="33" t="s">
         <v>1</v>
@@ -4263,22 +4263,22 @@
       <c r="A28" s="13"/>
       <c r="B28" s="99"/>
       <c r="C28" s="100" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D28" s="141" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="F28" s="26" t="s">
         <v>72</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="F28" s="26" t="s">
-        <v>73</v>
       </c>
       <c r="G28" s="32" t="s">
         <v>1</v>
       </c>
       <c r="H28" s="106" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I28" s="123" t="s">
         <v>1</v>
@@ -4291,10 +4291,10 @@
       <c r="C29" s="101"/>
       <c r="D29" s="142"/>
       <c r="E29" s="21" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G29" s="32" t="s">
         <v>4</v>
@@ -4309,10 +4309,10 @@
       <c r="C30" s="102"/>
       <c r="D30" s="143"/>
       <c r="E30" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F30" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G30" s="32" t="s">
         <v>1</v>
@@ -4325,22 +4325,22 @@
       <c r="A31" s="13"/>
       <c r="B31" s="112"/>
       <c r="C31" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="E31" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="E31" s="28" t="s">
+      <c r="F31" s="30" t="s">
         <v>106</v>
-      </c>
-      <c r="F31" s="30" t="s">
-        <v>107</v>
       </c>
       <c r="G31" s="34" t="s">
         <v>1</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I31" s="55" t="s">
         <v>1</v>
@@ -4349,25 +4349,25 @@
     <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="98" t="s">
-        <v>53</v>
+        <v>231</v>
       </c>
       <c r="C32" s="110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D32" s="113" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="106" t="s">
-        <v>56</v>
-      </c>
       <c r="F32" s="109" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G32" s="133" t="s">
         <v>1</v>
       </c>
       <c r="H32" s="109" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I32" s="132" t="s">
         <v>1</v>
@@ -4390,22 +4390,22 @@
       <c r="A34" s="13"/>
       <c r="B34" s="99"/>
       <c r="C34" s="110" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="113" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D34" s="113" t="s">
-        <v>59</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>78</v>
-      </c>
       <c r="F34" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>1</v>
       </c>
       <c r="H34" s="137" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I34" s="139" t="s">
         <v>1</v>
@@ -4418,10 +4418,10 @@
       <c r="C35" s="116"/>
       <c r="D35" s="114"/>
       <c r="E35" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35" s="22" t="s">
         <v>79</v>
-      </c>
-      <c r="F35" s="22" t="s">
-        <v>80</v>
       </c>
       <c r="G35" s="32" t="s">
         <v>1</v>
@@ -4436,10 +4436,10 @@
       <c r="C36" s="111"/>
       <c r="D36" s="115"/>
       <c r="E36" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36" s="41" t="s">
         <v>81</v>
-      </c>
-      <c r="F36" s="41" t="s">
-        <v>82</v>
       </c>
       <c r="G36" s="33" t="s">
         <v>1</v>
@@ -4452,22 +4452,22 @@
       <c r="A37" s="13"/>
       <c r="B37" s="99"/>
       <c r="C37" s="110" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="113" t="s">
         <v>83</v>
       </c>
-      <c r="D37" s="113" t="s">
+      <c r="E37" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="E37" s="21" t="s">
-        <v>85</v>
-      </c>
       <c r="F37" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G37" s="36" t="s">
         <v>4</v>
       </c>
       <c r="H37" s="106" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I37" s="134" t="s">
         <v>4</v>
@@ -4480,10 +4480,10 @@
       <c r="C38" s="116"/>
       <c r="D38" s="114"/>
       <c r="E38" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F38" s="27" t="s">
         <v>87</v>
-      </c>
-      <c r="F38" s="27" t="s">
-        <v>88</v>
       </c>
       <c r="G38" s="36" t="s">
         <v>4</v>
@@ -4498,10 +4498,10 @@
       <c r="C39" s="111"/>
       <c r="D39" s="115"/>
       <c r="E39" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F39" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G39" s="36" t="s">
         <v>4</v>
@@ -4514,22 +4514,22 @@
       <c r="A40" s="13"/>
       <c r="B40" s="112"/>
       <c r="C40" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="E40" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="E40" s="23" t="s">
+      <c r="F40" s="23" t="s">
         <v>93</v>
-      </c>
-      <c r="F40" s="23" t="s">
-        <v>94</v>
       </c>
       <c r="G40" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H40" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I40" s="54" t="s">
         <v>4</v>
@@ -4538,16 +4538,16 @@
     <row r="41" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
       <c r="B41" s="98" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C41" s="106" t="s">
+        <v>149</v>
+      </c>
+      <c r="D41" s="106" t="s">
+        <v>152</v>
+      </c>
+      <c r="E41" s="19" t="s">
         <v>150</v>
-      </c>
-      <c r="D41" s="106" t="s">
-        <v>153</v>
-      </c>
-      <c r="E41" s="19" t="s">
-        <v>151</v>
       </c>
       <c r="F41" s="19" t="s">
         <v>41</v>
@@ -4556,7 +4556,7 @@
         <v>1</v>
       </c>
       <c r="H41" s="106" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I41" s="151" t="s">
         <v>1</v>
@@ -4568,10 +4568,10 @@
       <c r="C42" s="108"/>
       <c r="D42" s="108"/>
       <c r="E42" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G42" s="32" t="s">
         <v>1</v>
@@ -4582,16 +4582,16 @@
     <row r="43" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
       <c r="B43" s="98" t="s">
-        <v>119</v>
+        <v>232</v>
       </c>
       <c r="C43" s="147" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" s="106" t="s">
         <v>156</v>
       </c>
-      <c r="D43" s="106" t="s">
+      <c r="E43" s="19" t="s">
         <v>157</v>
-      </c>
-      <c r="E43" s="19" t="s">
-        <v>158</v>
       </c>
       <c r="F43" s="20" t="s">
         <v>41</v>
@@ -4600,7 +4600,7 @@
         <v>1</v>
       </c>
       <c r="H43" s="106" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I43" s="144" t="s">
         <v>1</v>
@@ -4612,7 +4612,7 @@
       <c r="C44" s="148"/>
       <c r="D44" s="107"/>
       <c r="E44" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F44" s="22" t="s">
         <v>39</v>
@@ -4629,10 +4629,10 @@
       <c r="C45" s="148"/>
       <c r="D45" s="107"/>
       <c r="E45" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G45" s="32" t="s">
         <v>2</v>
@@ -4645,10 +4645,10 @@
       <c r="C46" s="149"/>
       <c r="D46" s="108"/>
       <c r="E46" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="F46" s="41" t="s">
         <v>163</v>
-      </c>
-      <c r="F46" s="41" t="s">
-        <v>164</v>
       </c>
       <c r="G46" s="33" t="s">
         <v>1</v>
@@ -4845,7 +4845,7 @@
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:E16"/>
+      <selection activeCell="E19" sqref="E19:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4977,14 +4977,14 @@
         <v>9</v>
       </c>
       <c r="J7" s="118" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
-      <c r="B8" s="159"/>
-      <c r="C8" s="159"/>
-      <c r="D8" s="159"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="160"/>
       <c r="E8" s="17" t="s">
         <v>20</v>
       </c>
@@ -4994,9 +4994,9 @@
       <c r="G8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="159"/>
-      <c r="I8" s="159"/>
-      <c r="J8" s="159"/>
+      <c r="H8" s="160"/>
+      <c r="I8" s="160"/>
+      <c r="J8" s="160"/>
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
@@ -5004,24 +5004,24 @@
         <v>35</v>
       </c>
       <c r="C9" s="157" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D9" s="155" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E9" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" s="53" t="s">
         <v>132</v>
-      </c>
-      <c r="F9" s="53" t="s">
-        <v>133</v>
       </c>
       <c r="G9" s="48" t="s">
         <v>1</v>
       </c>
       <c r="H9" s="156" t="s">
-        <v>110</v>
-      </c>
-      <c r="I9" s="161" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9" s="162" t="s">
         <v>1</v>
       </c>
       <c r="J9" s="129"/>
@@ -5032,15 +5032,15 @@
       <c r="C10" s="158"/>
       <c r="D10" s="156"/>
       <c r="E10" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G10" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="160"/>
+      <c r="H10" s="161"/>
       <c r="I10" s="140"/>
       <c r="J10" s="129"/>
     </row>
@@ -5048,22 +5048,22 @@
       <c r="A11" s="13"/>
       <c r="B11" s="112"/>
       <c r="C11" s="34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E11" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" s="49" t="s">
         <v>129</v>
-      </c>
-      <c r="F11" s="49" t="s">
-        <v>130</v>
       </c>
       <c r="G11" s="51" t="s">
         <v>1</v>
       </c>
       <c r="H11" s="52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I11" s="64" t="s">
         <v>1</v>
@@ -5072,25 +5072,25 @@
     <row r="12" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="67" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C12" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="23" t="s">
         <v>111</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>112</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>38</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G12" s="45" t="s">
         <v>1</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I12" s="64" t="s">
         <v>1</v>
@@ -5098,26 +5098,26 @@
     </row>
     <row r="13" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
-      <c r="B13" s="163" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="165" t="s">
-        <v>121</v>
-      </c>
-      <c r="D13" s="167" t="s">
+      <c r="B13" s="98" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="164" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="166" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="19" t="s">
-        <v>100</v>
-      </c>
       <c r="F13" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G13" s="46" t="s">
         <v>2</v>
       </c>
       <c r="H13" s="147" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I13" s="153" t="s">
         <v>2</v>
@@ -5126,14 +5126,14 @@
     </row>
     <row r="14" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
-      <c r="B14" s="163"/>
-      <c r="C14" s="166"/>
-      <c r="D14" s="167"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="165"/>
+      <c r="D14" s="166"/>
       <c r="E14" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="23" t="s">
         <v>101</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>102</v>
       </c>
       <c r="G14" s="47" t="s">
         <v>2</v>
@@ -5144,74 +5144,74 @@
     </row>
     <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
-      <c r="B15" s="164" t="s">
-        <v>120</v>
+      <c r="B15" s="163" t="s">
+        <v>119</v>
       </c>
       <c r="C15" s="110" t="s">
-        <v>128</v>
-      </c>
-      <c r="D15" s="162" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="159" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="E15" s="21" t="s">
-        <v>123</v>
-      </c>
       <c r="F15" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>2</v>
       </c>
       <c r="H15" s="156" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I15" s="126" t="s">
         <v>2</v>
       </c>
       <c r="J15" s="130" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
-      <c r="B16" s="164"/>
+      <c r="B16" s="163"/>
       <c r="C16" s="111"/>
-      <c r="D16" s="162"/>
+      <c r="D16" s="159"/>
       <c r="E16" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G16" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="H16" s="160"/>
+      <c r="H16" s="161"/>
       <c r="I16" s="127"/>
       <c r="J16" s="131"/>
     </row>
     <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="98" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C17" s="110" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D17" s="106" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E17" s="106" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G17" s="48" t="s">
         <v>1</v>
       </c>
       <c r="H17" s="106" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I17" s="153" t="s">
         <v>2</v>
@@ -5224,7 +5224,7 @@
       <c r="D18" s="107"/>
       <c r="E18" s="107"/>
       <c r="F18" s="22" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G18" s="32" t="s">
         <v>2</v>
@@ -5236,22 +5236,22 @@
       <c r="A19" s="13"/>
       <c r="B19" s="99"/>
       <c r="C19" s="110" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D19" s="106" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E19" s="106" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G19" s="48" t="s">
         <v>1</v>
       </c>
       <c r="H19" s="106" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I19" s="153" t="s">
         <v>2</v>
@@ -5264,7 +5264,7 @@
       <c r="D20" s="108"/>
       <c r="E20" s="108"/>
       <c r="F20" s="41" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G20" s="33" t="s">
         <v>2</v>
@@ -5624,7 +5624,7 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:H8"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5642,7 +5642,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.5">
       <c r="A1" s="117" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B1" s="117"/>
       <c r="C1" s="117"/>
@@ -5756,14 +5756,14 @@
         <v>9</v>
       </c>
       <c r="J7" s="118" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
-      <c r="B8" s="159"/>
-      <c r="C8" s="159"/>
-      <c r="D8" s="159"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="160"/>
       <c r="E8" s="17" t="s">
         <v>20</v>
       </c>
@@ -5773,94 +5773,94 @@
       <c r="G8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="159"/>
-      <c r="I8" s="159"/>
-      <c r="J8" s="159"/>
+      <c r="H8" s="160"/>
+      <c r="I8" s="160"/>
+      <c r="J8" s="160"/>
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
-      <c r="B9" s="179" t="s">
-        <v>198</v>
+      <c r="B9" s="170" t="s">
+        <v>196</v>
       </c>
       <c r="C9" s="157" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D9" s="109" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G9" s="48" t="s">
         <v>1</v>
       </c>
       <c r="H9" s="156" t="s">
-        <v>172</v>
-      </c>
-      <c r="I9" s="173" t="s">
+        <v>171</v>
+      </c>
+      <c r="I9" s="178" t="s">
         <v>1</v>
       </c>
       <c r="J9" s="129"/>
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
-      <c r="B10" s="181"/>
+      <c r="B10" s="175"/>
       <c r="C10" s="158"/>
       <c r="D10" s="106"/>
       <c r="E10" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G10" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="172"/>
-      <c r="I10" s="174"/>
+      <c r="H10" s="177"/>
+      <c r="I10" s="179"/>
       <c r="J10" s="129"/>
     </row>
     <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
-      <c r="B11" s="181"/>
+      <c r="B11" s="175"/>
       <c r="C11" s="158"/>
-      <c r="D11" s="171"/>
+      <c r="D11" s="176"/>
       <c r="E11" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G11" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="160"/>
-      <c r="I11" s="175"/>
+      <c r="H11" s="161"/>
+      <c r="I11" s="180"/>
       <c r="J11" s="129"/>
     </row>
     <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
-      <c r="B12" s="180"/>
+      <c r="B12" s="171"/>
       <c r="C12" s="34" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D12" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="F12" s="19" t="s">
         <v>177</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>178</v>
       </c>
       <c r="G12" s="66" t="s">
         <v>1</v>
       </c>
       <c r="H12" s="52" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I12" s="56" t="s">
         <v>1</v>
@@ -5868,26 +5868,26 @@
     </row>
     <row r="13" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
-      <c r="B13" s="179" t="s">
+      <c r="B13" s="170" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" s="172" t="s">
+        <v>194</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="E13" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="C13" s="186" t="s">
-        <v>196</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="E13" s="26" t="s">
+      <c r="F13" s="59" t="s">
         <v>181</v>
-      </c>
-      <c r="F13" s="59" t="s">
-        <v>182</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="176" t="s">
-        <v>183</v>
+      <c r="H13" s="174" t="s">
+        <v>182</v>
       </c>
       <c r="I13" s="100" t="s">
         <v>2</v>
@@ -5896,16 +5896,16 @@
     </row>
     <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
-      <c r="B14" s="180"/>
-      <c r="C14" s="187"/>
+      <c r="B14" s="171"/>
+      <c r="C14" s="173"/>
       <c r="D14" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="E14" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="E14" s="29" t="s">
-        <v>186</v>
-      </c>
       <c r="F14" s="60" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G14" s="62" t="s">
         <v>1</v>
@@ -5914,28 +5914,28 @@
       <c r="I14" s="102"/>
       <c r="J14" s="129"/>
     </row>
-    <row r="15" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
-      <c r="B15" s="164" t="s">
-        <v>193</v>
+      <c r="B15" s="163" t="s">
+        <v>233</v>
       </c>
       <c r="C15" s="110" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D15" s="108" t="s">
+        <v>186</v>
+      </c>
+      <c r="E15" s="106" t="s">
         <v>187</v>
       </c>
-      <c r="E15" s="106" t="s">
+      <c r="F15" s="59" t="s">
         <v>188</v>
-      </c>
-      <c r="F15" s="59" t="s">
-        <v>189</v>
       </c>
       <c r="G15" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="H15" s="169" t="s">
-        <v>192</v>
+      <c r="H15" s="168" t="s">
+        <v>191</v>
       </c>
       <c r="I15" s="123" t="s">
         <v>1</v>
@@ -5944,33 +5944,33 @@
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
-      <c r="B16" s="164"/>
+      <c r="B16" s="163"/>
       <c r="C16" s="116"/>
       <c r="D16" s="109"/>
       <c r="E16" s="107"/>
       <c r="F16" s="28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G16" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="H16" s="169"/>
+      <c r="H16" s="168"/>
       <c r="I16" s="124"/>
       <c r="J16" s="130"/>
     </row>
-    <row r="17" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
-      <c r="B17" s="164"/>
+      <c r="B17" s="163"/>
       <c r="C17" s="111"/>
-      <c r="D17" s="168"/>
+      <c r="D17" s="167"/>
       <c r="E17" s="108"/>
       <c r="F17" s="60" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G17" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="170"/>
+      <c r="H17" s="169"/>
       <c r="I17" s="125"/>
       <c r="J17" s="131"/>
     </row>
@@ -6359,7 +6359,7 @@
   <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -6377,7 +6377,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.5">
       <c r="A1" s="117" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B1" s="117"/>
       <c r="C1" s="117"/>
@@ -6491,14 +6491,14 @@
         <v>9</v>
       </c>
       <c r="J7" s="118" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
-      <c r="B8" s="159"/>
-      <c r="C8" s="159"/>
-      <c r="D8" s="159"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="160"/>
       <c r="E8" s="17" t="s">
         <v>20</v>
       </c>
@@ -6508,117 +6508,117 @@
       <c r="G8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="159"/>
-      <c r="I8" s="159"/>
-      <c r="J8" s="159"/>
+      <c r="H8" s="160"/>
+      <c r="I8" s="160"/>
+      <c r="J8" s="160"/>
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
-      <c r="B9" s="179" t="s">
-        <v>219</v>
+      <c r="B9" s="170" t="s">
+        <v>217</v>
       </c>
       <c r="C9" s="110" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" s="106" t="s">
         <v>215</v>
       </c>
-      <c r="D9" s="106" t="s">
-        <v>217</v>
-      </c>
       <c r="E9" s="19" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G9" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="H9" s="171" t="s">
-        <v>228</v>
-      </c>
-      <c r="I9" s="183" t="s">
+      <c r="H9" s="176" t="s">
+        <v>226</v>
+      </c>
+      <c r="I9" s="182" t="s">
         <v>2</v>
       </c>
       <c r="J9" s="129"/>
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
-      <c r="B10" s="181"/>
+      <c r="B10" s="175"/>
       <c r="C10" s="116"/>
       <c r="D10" s="107"/>
       <c r="E10" s="19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="182"/>
-      <c r="I10" s="184"/>
+      <c r="H10" s="181"/>
+      <c r="I10" s="183"/>
       <c r="J10" s="129"/>
     </row>
     <row r="11" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
-      <c r="B11" s="180"/>
+      <c r="B11" s="171"/>
       <c r="C11" s="111"/>
       <c r="D11" s="108"/>
       <c r="E11" s="19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F11" s="53" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>2</v>
       </c>
       <c r="H11" s="150"/>
-      <c r="I11" s="185"/>
+      <c r="I11" s="184"/>
       <c r="J11" s="129"/>
     </row>
     <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
-      <c r="B12" s="179" t="s">
+      <c r="B12" s="170" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="100" t="s">
+        <v>222</v>
+      </c>
+      <c r="D12" s="106" t="s">
+        <v>223</v>
+      </c>
+      <c r="E12" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="D12" s="106" t="s">
-        <v>225</v>
-      </c>
-      <c r="E12" s="59" t="s">
-        <v>226</v>
-      </c>
       <c r="F12" s="59" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G12" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="H12" s="177" t="s">
-        <v>230</v>
-      </c>
-      <c r="I12" s="173" t="s">
+      <c r="H12" s="185" t="s">
+        <v>228</v>
+      </c>
+      <c r="I12" s="178" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
-      <c r="B13" s="180"/>
+      <c r="B13" s="171"/>
       <c r="C13" s="102"/>
       <c r="D13" s="108"/>
       <c r="E13" s="60" t="s">
+        <v>225</v>
+      </c>
+      <c r="F13" s="60" t="s">
         <v>227</v>
-      </c>
-      <c r="F13" s="60" t="s">
-        <v>229</v>
       </c>
       <c r="G13" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="H13" s="178"/>
-      <c r="I13" s="175"/>
+      <c r="H13" s="186"/>
+      <c r="I13" s="180"/>
     </row>
     <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
